--- a/raw_data/20200818_saline/20200818_Sensor2_Test_66.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_66.xlsx
@@ -1,508 +1,924 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47E1666-866C-4B24-8C68-C80274C0C53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>58872.189782</v>
+        <v>58872.189782000001</v>
       </c>
       <c r="B2" s="1">
         <v>16.353386</v>
       </c>
       <c r="C2" s="1">
-        <v>1248.420000</v>
+        <v>1248.42</v>
       </c>
       <c r="D2" s="1">
-        <v>-303.675000</v>
+        <v>-303.67500000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>58882.233738</v>
+        <v>58882.233738000003</v>
       </c>
       <c r="G2" s="1">
-        <v>16.356176</v>
+        <v>16.356176000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1272.680000</v>
+        <v>1272.68</v>
       </c>
       <c r="I2" s="1">
-        <v>-261.869000</v>
+        <v>-261.86900000000003</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>58892.707296</v>
@@ -511,677 +927,677 @@
         <v>16.359085</v>
       </c>
       <c r="M2" s="1">
-        <v>1307.410000</v>
+        <v>1307.4100000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-199.998000</v>
+        <v>-199.99799999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>58903.148056</v>
+        <v>58903.148055999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>16.361986</v>
+        <v>16.361986000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1319.180000</v>
+        <v>1319.18</v>
       </c>
       <c r="S2" s="1">
-        <v>-182.862000</v>
+        <v>-182.86199999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>58913.714530</v>
+        <v>58913.714529999997</v>
       </c>
       <c r="V2" s="1">
-        <v>16.364921</v>
+        <v>16.364920999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1331.790000</v>
+        <v>1331.79</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.118000</v>
+        <v>-170.11799999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>58924.148194</v>
+        <v>58924.148194000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>16.367819</v>
+        <v>16.367819000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1349.330000</v>
+        <v>1349.33</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.768000</v>
+        <v>-168.768</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>58934.741257</v>
+        <v>58934.741257000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>16.370761</v>
+        <v>16.370761000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>1362.490000</v>
+        <v>1362.49</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.855000</v>
+        <v>-178.85499999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>58945.204327</v>
+        <v>58945.204326999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>16.373668</v>
+        <v>16.373667999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1383.640000</v>
+        <v>1383.64</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.023000</v>
+        <v>-209.023</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>58956.099961</v>
       </c>
       <c r="AP2" s="1">
-        <v>16.376694</v>
+        <v>16.376694000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1405.830000</v>
+        <v>1405.83</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.912000</v>
+        <v>-252.91200000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>58967.024826</v>
+        <v>58967.024826000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>16.379729</v>
+        <v>16.379729000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1431.110000</v>
+        <v>1431.11</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.501000</v>
+        <v>-312.50099999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>58978.216059</v>
+        <v>58978.216058999998</v>
       </c>
       <c r="AZ2" s="1">
         <v>16.382838</v>
       </c>
       <c r="BA2" s="1">
-        <v>1450.870000</v>
+        <v>1450.87</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.285000</v>
+        <v>-364.28500000000003</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>58989.233691</v>
+        <v>58989.233691000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>16.385898</v>
+        <v>16.385898000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1538.070000</v>
+        <v>1538.07</v>
       </c>
       <c r="BG2" s="1">
-        <v>-609.796000</v>
+        <v>-609.79600000000005</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>59000.242398</v>
+        <v>59000.242398000002</v>
       </c>
       <c r="BJ2" s="1">
         <v>16.388956</v>
       </c>
       <c r="BK2" s="1">
-        <v>1694.770000</v>
+        <v>1694.77</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1048.130000</v>
+        <v>-1048.1300000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>59012.003533</v>
+        <v>59012.003533000003</v>
       </c>
       <c r="BO2" s="1">
-        <v>16.392223</v>
+        <v>16.392223000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1992.730000</v>
+        <v>1992.73</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1804.090000</v>
+        <v>-1804.09</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>59022.469120</v>
+        <v>59022.469120000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>16.395130</v>
+        <v>16.395130000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>2380.950000</v>
+        <v>2380.9499999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2673.940000</v>
+        <v>-2673.94</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>59033.212006</v>
+        <v>59033.212006000002</v>
       </c>
       <c r="BY2" s="1">
         <v>16.398114</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2868.460000</v>
+        <v>2868.46</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3615.860000</v>
+        <v>-3615.86</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>59044.513314</v>
+        <v>59044.513314000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>16.401254</v>
+        <v>16.401254000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>4286.360000</v>
+        <v>4286.3599999999997</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5879.390000</v>
+        <v>-5879.39</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>58872.627717</v>
+        <v>58872.627717000003</v>
       </c>
       <c r="B3" s="1">
-        <v>16.353508</v>
+        <v>16.353508000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1248.980000</v>
+        <v>1248.98</v>
       </c>
       <c r="D3" s="1">
-        <v>-303.923000</v>
+        <v>-303.923</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>58882.649881</v>
+        <v>58882.649880999998</v>
       </c>
       <c r="G3" s="1">
         <v>16.356292</v>
       </c>
       <c r="H3" s="1">
-        <v>1272.820000</v>
+        <v>1272.82</v>
       </c>
       <c r="I3" s="1">
-        <v>-261.212000</v>
+        <v>-261.21199999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>58893.126410</v>
+        <v>58893.126409999997</v>
       </c>
       <c r="L3" s="1">
         <v>16.359202</v>
       </c>
       <c r="M3" s="1">
-        <v>1307.690000</v>
+        <v>1307.69</v>
       </c>
       <c r="N3" s="1">
-        <v>-200.349000</v>
+        <v>-200.34899999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>58903.500700</v>
+        <v>58903.500699999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>16.362084</v>
+        <v>16.362083999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1319.090000</v>
+        <v>1319.09</v>
       </c>
       <c r="S3" s="1">
-        <v>-182.885000</v>
+        <v>-182.88499999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>58914.079374</v>
+        <v>58914.079374000001</v>
       </c>
       <c r="V3" s="1">
         <v>16.365022</v>
       </c>
       <c r="W3" s="1">
-        <v>1332.000000</v>
+        <v>1332</v>
       </c>
       <c r="X3" s="1">
-        <v>-169.957000</v>
+        <v>-169.95699999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>58924.537520</v>
+        <v>58924.537519999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>16.367927</v>
+        <v>16.367927000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>1349.550000</v>
+        <v>1349.55</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.705000</v>
+        <v>-168.70500000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>58935.126115</v>
+        <v>58935.126114999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>16.370868</v>
+        <v>16.370868000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>1362.540000</v>
+        <v>1362.54</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.854000</v>
+        <v>-178.85400000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>58945.937412</v>
+        <v>58945.937411999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>16.373872</v>
+        <v>16.373871999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1383.650000</v>
+        <v>1383.65</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.031000</v>
+        <v>-209.03100000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>58956.500252</v>
+        <v>58956.500251999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>16.376806</v>
+        <v>16.376805999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1405.800000</v>
+        <v>1405.8</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.905000</v>
+        <v>-252.905</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>58967.424104</v>
+        <v>58967.424103999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>16.379840</v>
+        <v>16.379840000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>1431.100000</v>
+        <v>1431.1</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.561000</v>
+        <v>-312.56099999999998</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>58978.613851</v>
+        <v>58978.613851000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>16.382948</v>
+        <v>16.382947999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1450.830000</v>
+        <v>1450.83</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.312000</v>
+        <v>-364.31200000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>58989.928123</v>
+        <v>58989.928122999998</v>
       </c>
       <c r="BE3" s="1">
         <v>16.386091</v>
       </c>
       <c r="BF3" s="1">
-        <v>1538.040000</v>
+        <v>1538.04</v>
       </c>
       <c r="BG3" s="1">
-        <v>-609.761000</v>
+        <v>-609.76099999999997</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>59000.967053</v>
       </c>
       <c r="BJ3" s="1">
-        <v>16.389158</v>
+        <v>16.389157999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1694.800000</v>
+        <v>1694.8</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1048.090000</v>
+        <v>-1048.0899999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>59012.114669</v>
+        <v>59012.114669000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>16.392254</v>
+        <v>16.392254000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1992.620000</v>
+        <v>1992.62</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1804.470000</v>
+        <v>-1804.47</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>59022.954215</v>
+        <v>59022.954214999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>16.395265</v>
+        <v>16.395264999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>2380.500000</v>
+        <v>2380.5</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2673.940000</v>
+        <v>-2673.94</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>59033.704497</v>
+        <v>59033.704496999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>16.398251</v>
+        <v>16.398250999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2868.140000</v>
+        <v>2868.14</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3616.480000</v>
+        <v>-3616.48</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>59045.099091</v>
+        <v>59045.099090999996</v>
       </c>
       <c r="CD3" s="1">
-        <v>16.401416</v>
+        <v>16.401416000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4288.010000</v>
+        <v>4288.01</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5859.510000</v>
+        <v>-5859.51</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>58872.895594</v>
+        <v>58872.895594000001</v>
       </c>
       <c r="B4" s="1">
-        <v>16.353582</v>
+        <v>16.353581999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1248.330000</v>
+        <v>1248.33</v>
       </c>
       <c r="D4" s="1">
-        <v>-304.043000</v>
+        <v>-304.04300000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>58882.958889</v>
+        <v>58882.958889000001</v>
       </c>
       <c r="G4" s="1">
-        <v>16.356377</v>
+        <v>16.356376999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>1273.190000</v>
+        <v>1273.19</v>
       </c>
       <c r="I4" s="1">
-        <v>-261.765000</v>
+        <v>-261.76499999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>58893.474075</v>
+        <v>58893.474074999998</v>
       </c>
       <c r="L4" s="1">
-        <v>16.359298</v>
+        <v>16.359297999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1307.510000</v>
+        <v>1307.51</v>
       </c>
       <c r="N4" s="1">
-        <v>-200.421000</v>
+        <v>-200.42099999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>58903.849885</v>
+        <v>58903.849885000003</v>
       </c>
       <c r="Q4" s="1">
         <v>16.362181</v>
       </c>
       <c r="R4" s="1">
-        <v>1319.070000</v>
+        <v>1319.07</v>
       </c>
       <c r="S4" s="1">
-        <v>-182.867000</v>
+        <v>-182.86699999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>58914.421615</v>
+        <v>58914.421614999999</v>
       </c>
       <c r="V4" s="1">
-        <v>16.365117</v>
+        <v>16.365117000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1332.120000</v>
+        <v>1332.12</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.017000</v>
+        <v>-170.017</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>58925.232949</v>
+        <v>58925.232948999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>16.368120</v>
+        <v>16.368120000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1349.440000</v>
+        <v>1349.44</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.737000</v>
+        <v>-168.73699999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>58935.795714</v>
       </c>
       <c r="AF4" s="1">
-        <v>16.371054</v>
+        <v>16.371054000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1362.450000</v>
+        <v>1362.45</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.842000</v>
+        <v>-178.84200000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>58946.285141</v>
       </c>
       <c r="AK4" s="1">
-        <v>16.373968</v>
+        <v>16.373968000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1383.650000</v>
+        <v>1383.65</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.023000</v>
+        <v>-209.023</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>58956.858327</v>
+        <v>58956.858327000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>16.376905</v>
+        <v>16.376905000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1405.810000</v>
+        <v>1405.81</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.896000</v>
+        <v>-252.89599999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>58967.787175</v>
+        <v>58967.787174999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>16.379941</v>
+        <v>16.379940999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1431.070000</v>
+        <v>1431.07</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.551000</v>
+        <v>-312.55099999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>58979.272074</v>
       </c>
       <c r="AZ4" s="1">
-        <v>16.383131</v>
+        <v>16.383130999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1450.830000</v>
+        <v>1450.83</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.342000</v>
+        <v>-364.34199999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>58990.334812</v>
+        <v>58990.334812000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>16.386204</v>
+        <v>16.386203999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1538.020000</v>
+        <v>1538.02</v>
       </c>
       <c r="BG4" s="1">
-        <v>-609.819000</v>
+        <v>-609.81899999999996</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>59001.438753</v>
+        <v>59001.438753000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>16.389289</v>
+        <v>16.389289000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1694.630000</v>
+        <v>1694.63</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1048.170000</v>
+        <v>-1048.17</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>59012.521858</v>
@@ -1190,150 +1606,150 @@
         <v>16.392367</v>
       </c>
       <c r="BP4" s="1">
-        <v>1992.450000</v>
+        <v>1992.45</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1804.470000</v>
+        <v>-1804.47</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>59023.379774</v>
+        <v>59023.379774000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>16.395383</v>
+        <v>16.395382999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>2380.790000</v>
+        <v>2380.79</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2673.740000</v>
+        <v>-2673.74</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>59034.133041</v>
+        <v>59034.133041000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>16.398370</v>
+        <v>16.39837</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2868.380000</v>
+        <v>2868.38</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3615.960000</v>
+        <v>-3615.96</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>59045.648656</v>
+        <v>59045.648655999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>16.401569</v>
+        <v>16.401568999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4274.000000</v>
+        <v>4274</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5875.810000</v>
+        <v>-5875.81</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>58873.243253</v>
+        <v>58873.243253000001</v>
       </c>
       <c r="B5" s="1">
         <v>16.353679</v>
       </c>
       <c r="C5" s="1">
-        <v>1248.570000</v>
+        <v>1248.57</v>
       </c>
       <c r="D5" s="1">
-        <v>-303.757000</v>
+        <v>-303.75700000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>58883.302615</v>
+        <v>58883.302615000001</v>
       </c>
       <c r="G5" s="1">
-        <v>16.356473</v>
+        <v>16.356473000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1272.860000</v>
+        <v>1272.8599999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-262.588000</v>
+        <v>-262.58800000000002</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>58893.821308</v>
+        <v>58893.821307999999</v>
       </c>
       <c r="L5" s="1">
-        <v>16.359395</v>
+        <v>16.359394999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1307.370000</v>
+        <v>1307.3699999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-200.270000</v>
+        <v>-200.27</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>58904.547260</v>
+        <v>58904.547259999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>16.362374</v>
+        <v>16.362373999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1319.090000</v>
+        <v>1319.09</v>
       </c>
       <c r="S5" s="1">
-        <v>-182.806000</v>
+        <v>-182.80600000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>58915.108108</v>
       </c>
       <c r="V5" s="1">
-        <v>16.365308</v>
+        <v>16.365307999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1331.900000</v>
+        <v>1331.9</v>
       </c>
       <c r="X5" s="1">
-        <v>-169.957000</v>
+        <v>-169.95699999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>58925.581138</v>
+        <v>58925.581138000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>16.368217</v>
+        <v>16.368217000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1349.340000</v>
+        <v>1349.34</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.652000</v>
+        <v>-168.65199999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>58936.149394</v>
@@ -1342,572 +1758,572 @@
         <v>16.371153</v>
       </c>
       <c r="AG5" s="1">
-        <v>1362.520000</v>
+        <v>1362.52</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.787000</v>
+        <v>-178.78700000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>58946.634293</v>
+        <v>58946.634293000003</v>
       </c>
       <c r="AK5" s="1">
-        <v>16.374065</v>
+        <v>16.374065000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1383.640000</v>
+        <v>1383.64</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.014000</v>
+        <v>-209.01400000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>58957.532389</v>
       </c>
       <c r="AP5" s="1">
-        <v>16.377092</v>
+        <v>16.377092000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1405.800000</v>
+        <v>1405.8</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.888000</v>
+        <v>-252.88800000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>58968.424071</v>
+        <v>58968.424071000001</v>
       </c>
       <c r="AU5" s="1">
         <v>16.380118</v>
       </c>
       <c r="AV5" s="1">
-        <v>1431.090000</v>
+        <v>1431.09</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.585000</v>
+        <v>-312.58499999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>58979.689672</v>
       </c>
       <c r="AZ5" s="1">
-        <v>16.383247</v>
+        <v>16.383247000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1450.840000</v>
+        <v>1450.84</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.274000</v>
+        <v>-364.274</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>58990.726189</v>
+        <v>58990.726189000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>16.386313</v>
+        <v>16.386313000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1538.010000</v>
+        <v>1538.01</v>
       </c>
       <c r="BG5" s="1">
-        <v>-609.786000</v>
+        <v>-609.78599999999994</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>59001.817194</v>
+        <v>59001.817194000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>16.389394</v>
+        <v>16.389393999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1694.790000</v>
+        <v>1694.79</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1048.170000</v>
+        <v>-1048.17</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>59012.918188</v>
+        <v>59012.918188000003</v>
       </c>
       <c r="BO5" s="1">
         <v>16.392477</v>
       </c>
       <c r="BP5" s="1">
-        <v>1992.300000</v>
+        <v>1992.3</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1804.470000</v>
+        <v>-1804.47</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>59023.804694</v>
+        <v>59023.804693999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>16.395501</v>
+        <v>16.395500999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>2380.170000</v>
+        <v>2380.17</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2673.500000</v>
+        <v>-2673.5</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>59034.975246</v>
+        <v>59034.975246000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>16.398604</v>
+        <v>16.398603999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2868.040000</v>
+        <v>2868.04</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3616.540000</v>
+        <v>-3616.54</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>59046.188304</v>
+        <v>59046.188304000003</v>
       </c>
       <c r="CD5" s="1">
         <v>16.401719</v>
       </c>
       <c r="CE5" s="1">
-        <v>4295.600000</v>
+        <v>4295.6000000000004</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5869.590000</v>
+        <v>-5869.59</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>58873.578547</v>
+        <v>58873.578546999997</v>
       </c>
       <c r="B6" s="1">
-        <v>16.353772</v>
+        <v>16.353771999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1248.640000</v>
+        <v>1248.6400000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-303.900000</v>
+        <v>-303.89999999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>58883.645875</v>
+        <v>58883.645875000002</v>
       </c>
       <c r="G6" s="1">
-        <v>16.356568</v>
+        <v>16.356567999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1273.190000</v>
+        <v>1273.19</v>
       </c>
       <c r="I6" s="1">
-        <v>-261.905000</v>
+        <v>-261.90499999999997</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>58894.506284</v>
+        <v>58894.506284000003</v>
       </c>
       <c r="L6" s="1">
-        <v>16.359585</v>
+        <v>16.359584999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1307.550000</v>
+        <v>1307.55</v>
       </c>
       <c r="N6" s="1">
-        <v>-200.593000</v>
+        <v>-200.59299999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>58904.893498</v>
+        <v>58904.893497999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>16.362470</v>
+        <v>16.362469999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>1319.110000</v>
+        <v>1319.11</v>
       </c>
       <c r="S6" s="1">
-        <v>-182.803000</v>
+        <v>-182.803</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>58915.455309</v>
+        <v>58915.455308999997</v>
       </c>
       <c r="V6" s="1">
-        <v>16.365404</v>
+        <v>16.365404000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>1332.040000</v>
+        <v>1332.04</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.211000</v>
+        <v>-170.21100000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>58925.928303</v>
+        <v>58925.928303000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>16.368313</v>
+        <v>16.368313000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1349.370000</v>
+        <v>1349.37</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.705000</v>
+        <v>-168.70500000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>58936.824457</v>
+        <v>58936.824457000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>16.371340</v>
+        <v>16.37134</v>
       </c>
       <c r="AG6" s="1">
-        <v>1362.480000</v>
+        <v>1362.48</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.800000</v>
+        <v>-178.8</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>58947.290031</v>
+        <v>58947.290030999997</v>
       </c>
       <c r="AK6" s="1">
         <v>16.374247</v>
       </c>
       <c r="AL6" s="1">
-        <v>1383.660000</v>
+        <v>1383.66</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.035000</v>
+        <v>-209.035</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>58957.940130</v>
+        <v>58957.940130000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>16.377206</v>
+        <v>16.377206000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1405.840000</v>
+        <v>1405.84</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.875000</v>
+        <v>-252.875</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>58968.915115</v>
+        <v>58968.915115000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>16.380254</v>
+        <v>16.380254000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1431.020000</v>
+        <v>1431.02</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.565000</v>
+        <v>-312.565</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>58980.073576</v>
+        <v>58980.073576000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>16.383354</v>
+        <v>16.383354000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1450.790000</v>
+        <v>1450.79</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.310000</v>
+        <v>-364.31</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>58991.082320</v>
+        <v>58991.082320000001</v>
       </c>
       <c r="BE6" s="1">
         <v>16.386412</v>
       </c>
       <c r="BF6" s="1">
-        <v>1538.030000</v>
+        <v>1538.03</v>
       </c>
       <c r="BG6" s="1">
-        <v>-609.790000</v>
+        <v>-609.79</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>59002.241770</v>
+        <v>59002.241770000001</v>
       </c>
       <c r="BJ6" s="1">
         <v>16.389512</v>
       </c>
       <c r="BK6" s="1">
-        <v>1694.760000</v>
+        <v>1694.76</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1048.080000</v>
+        <v>-1048.08</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>59013.344259</v>
+        <v>59013.344258999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>16.392596</v>
+        <v>16.392596000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1992.300000</v>
+        <v>1992.3</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1804.390000</v>
+        <v>-1804.39</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>59024.224493</v>
+        <v>59024.224493000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>16.395618</v>
+        <v>16.395617999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2380.330000</v>
+        <v>2380.33</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2672.850000</v>
+        <v>-2672.85</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>59035.397375</v>
       </c>
       <c r="BY6" s="1">
-        <v>16.398721</v>
+        <v>16.398720999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2868.140000</v>
+        <v>2868.14</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3616.440000</v>
+        <v>-3616.44</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>59046.725968</v>
+        <v>59046.725967999999</v>
       </c>
       <c r="CD6" s="1">
         <v>16.401868</v>
       </c>
       <c r="CE6" s="1">
-        <v>4278.210000</v>
+        <v>4278.21</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5863.260000</v>
+        <v>-5863.26</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>58874.264515</v>
+        <v>58874.264515000003</v>
       </c>
       <c r="B7" s="1">
-        <v>16.353962</v>
+        <v>16.353961999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1248.660000</v>
+        <v>1248.6600000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-303.989000</v>
+        <v>-303.98899999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>58884.337277</v>
+        <v>58884.337276999999</v>
       </c>
       <c r="G7" s="1">
-        <v>16.356760</v>
+        <v>16.356760000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1272.600000</v>
+        <v>1272.5999999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-261.664000</v>
+        <v>-261.66399999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>58894.854440</v>
+        <v>58894.854440000003</v>
       </c>
       <c r="L7" s="1">
-        <v>16.359682</v>
+        <v>16.359681999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1307.630000</v>
+        <v>1307.6300000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-200.385000</v>
+        <v>-200.38499999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>58905.241658</v>
+        <v>58905.241657999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>16.362567</v>
+        <v>16.362566999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1319.120000</v>
+        <v>1319.12</v>
       </c>
       <c r="S7" s="1">
-        <v>-182.832000</v>
+        <v>-182.83199999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>58915.800031</v>
+        <v>58915.800030999999</v>
       </c>
       <c r="V7" s="1">
-        <v>16.365500</v>
+        <v>16.365500000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1331.980000</v>
+        <v>1331.98</v>
       </c>
       <c r="X7" s="1">
-        <v>-169.965000</v>
+        <v>-169.965</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>58926.600383</v>
+        <v>58926.600382999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>16.368500</v>
+        <v>16.368500000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1349.340000</v>
+        <v>1349.34</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.604000</v>
+        <v>-168.60400000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>58937.181039</v>
+        <v>58937.181039000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>16.371439</v>
+        <v>16.371438999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1362.560000</v>
+        <v>1362.56</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.786000</v>
+        <v>-178.786</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>58947.678868</v>
+        <v>58947.678868000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>16.374355</v>
+        <v>16.374355000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1383.590000</v>
+        <v>1383.59</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.002000</v>
+        <v>-209.00200000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>58958.320569</v>
+        <v>58958.320569000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>16.377311</v>
+        <v>16.377310999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1405.820000</v>
+        <v>1405.82</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.898000</v>
+        <v>-252.898</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>58969.280174</v>
       </c>
       <c r="AU7" s="1">
-        <v>16.380356</v>
+        <v>16.380355999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1431.040000</v>
+        <v>1431.04</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.552000</v>
+        <v>-312.55200000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>58980.434662</v>
@@ -1916,315 +2332,315 @@
         <v>16.383454</v>
       </c>
       <c r="BA7" s="1">
-        <v>1450.840000</v>
+        <v>1450.84</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.269000</v>
+        <v>-364.26900000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>58991.501933</v>
       </c>
       <c r="BE7" s="1">
-        <v>16.386528</v>
+        <v>16.386527999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1538.010000</v>
+        <v>1538.01</v>
       </c>
       <c r="BG7" s="1">
-        <v>-609.776000</v>
+        <v>-609.77599999999995</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>59002.593473</v>
+        <v>59002.593473000001</v>
       </c>
       <c r="BJ7" s="1">
         <v>16.389609</v>
       </c>
       <c r="BK7" s="1">
-        <v>1694.670000</v>
+        <v>1694.67</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1048.070000</v>
+        <v>-1048.07</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>59013.739041</v>
+        <v>59013.739041000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>16.392705</v>
+        <v>16.392704999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1992.430000</v>
+        <v>1992.43</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1804.340000</v>
+        <v>-1804.34</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>59024.649533</v>
+        <v>59024.649533000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>16.395736</v>
+        <v>16.395735999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>2380.200000</v>
+        <v>2380.1999999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2672.610000</v>
+        <v>-2672.61</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>59035.844733</v>
+        <v>59035.844732999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>16.398846</v>
+        <v>16.398845999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2867.400000</v>
+        <v>2867.4</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3616.060000</v>
+        <v>-3616.06</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>59047.269582</v>
+        <v>59047.269582000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>16.402019</v>
+        <v>16.402018999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4283.780000</v>
+        <v>4283.78</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5880.770000</v>
+        <v>-5880.77</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>58874.606258</v>
       </c>
       <c r="B8" s="1">
-        <v>16.354057</v>
+        <v>16.354057000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1248.540000</v>
+        <v>1248.54</v>
       </c>
       <c r="D8" s="1">
-        <v>-304.195000</v>
+        <v>-304.19499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>58884.688438</v>
+        <v>58884.688437999997</v>
       </c>
       <c r="G8" s="1">
-        <v>16.356858</v>
+        <v>16.356857999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1272.270000</v>
+        <v>1272.27</v>
       </c>
       <c r="I8" s="1">
-        <v>-263.058000</v>
+        <v>-263.05799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>58895.199655</v>
+        <v>58895.199654999997</v>
       </c>
       <c r="L8" s="1">
-        <v>16.359778</v>
+        <v>16.359777999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1307.650000</v>
+        <v>1307.6500000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-200.484000</v>
+        <v>-200.48400000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>58905.911258</v>
       </c>
       <c r="Q8" s="1">
-        <v>16.362753</v>
+        <v>16.362753000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1319.160000</v>
+        <v>1319.16</v>
       </c>
       <c r="S8" s="1">
-        <v>-182.890000</v>
+        <v>-182.89</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>58916.457691</v>
+        <v>58916.457691000003</v>
       </c>
       <c r="V8" s="1">
-        <v>16.365683</v>
+        <v>16.365683000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1332.250000</v>
+        <v>1332.25</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.001000</v>
+        <v>-170.001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>58926.976382</v>
+        <v>58926.976382000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>16.368605</v>
+        <v>16.368604999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1349.350000</v>
+        <v>1349.35</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.678000</v>
+        <v>-168.678</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>58937.523807</v>
+        <v>58937.523806999998</v>
       </c>
       <c r="AF8" s="1">
         <v>16.371534</v>
       </c>
       <c r="AG8" s="1">
-        <v>1362.520000</v>
+        <v>1362.52</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.773000</v>
+        <v>-178.773</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>58948.029042</v>
+        <v>58948.029042000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>16.374453</v>
+        <v>16.374452999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1383.630000</v>
+        <v>1383.63</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.020000</v>
+        <v>-209.02</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>58958.679139</v>
       </c>
       <c r="AP8" s="1">
-        <v>16.377411</v>
+        <v>16.377410999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1405.810000</v>
+        <v>1405.81</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.903000</v>
+        <v>-252.90299999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>58969.708181</v>
+        <v>58969.708181000002</v>
       </c>
       <c r="AU8" s="1">
         <v>16.380474</v>
       </c>
       <c r="AV8" s="1">
-        <v>1431.070000</v>
+        <v>1431.07</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.597000</v>
+        <v>-312.59699999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>58980.850806</v>
+        <v>58980.850806000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>16.383570</v>
+        <v>16.383569999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1450.820000</v>
+        <v>1450.82</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.233000</v>
+        <v>-364.233</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>58991.803960</v>
+        <v>58991.803959999997</v>
       </c>
       <c r="BE8" s="1">
         <v>16.386612</v>
       </c>
       <c r="BF8" s="1">
-        <v>1538.000000</v>
+        <v>1538</v>
       </c>
       <c r="BG8" s="1">
-        <v>-609.742000</v>
+        <v>-609.74199999999996</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>59002.969898</v>
+        <v>59002.969898000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>16.389714</v>
+        <v>16.389714000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1694.790000</v>
+        <v>1694.79</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1048.100000</v>
+        <v>-1048.0999999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>59014.154712</v>
+        <v>59014.154712000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>16.392821</v>
+        <v>16.392821000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1992.260000</v>
+        <v>1992.26</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1804.410000</v>
+        <v>-1804.41</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>59025.062735</v>
@@ -2233,270 +2649,270 @@
         <v>16.395851</v>
       </c>
       <c r="BU8" s="1">
-        <v>2380.590000</v>
+        <v>2380.59</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2672.350000</v>
+        <v>-2672.35</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>59036.272303</v>
+        <v>59036.272302999998</v>
       </c>
       <c r="BY8" s="1">
         <v>16.398965</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2867.510000</v>
+        <v>2867.51</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3616.100000</v>
+        <v>-3616.1</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>59047.809231</v>
+        <v>59047.809230999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>16.402169</v>
+        <v>16.402169000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4286.590000</v>
+        <v>4286.59</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5857.310000</v>
+        <v>-5857.31</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>58874.945523</v>
+        <v>58874.945523000002</v>
       </c>
       <c r="B9" s="1">
-        <v>16.354152</v>
+        <v>16.354151999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1248.360000</v>
+        <v>1248.3599999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-303.749000</v>
+        <v>-303.74900000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>58885.032662</v>
+        <v>58885.032661999998</v>
       </c>
       <c r="G9" s="1">
-        <v>16.356954</v>
+        <v>16.356954000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>1272.990000</v>
+        <v>1272.99</v>
       </c>
       <c r="I9" s="1">
-        <v>-262.342000</v>
+        <v>-262.34199999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>58895.865300</v>
+        <v>58895.865299999998</v>
       </c>
       <c r="L9" s="1">
         <v>16.359963</v>
       </c>
       <c r="M9" s="1">
-        <v>1307.600000</v>
+        <v>1307.5999999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-200.527000</v>
+        <v>-200.52699999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>58906.289210</v>
+        <v>58906.289210000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>16.362858</v>
+        <v>16.362857999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1319.110000</v>
+        <v>1319.11</v>
       </c>
       <c r="S9" s="1">
-        <v>-182.882000</v>
+        <v>-182.88200000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>58916.829723</v>
+        <v>58916.829723000003</v>
       </c>
       <c r="V9" s="1">
         <v>16.365786</v>
       </c>
       <c r="W9" s="1">
-        <v>1332.030000</v>
+        <v>1332.03</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.053000</v>
+        <v>-170.053</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>58927.323582</v>
+        <v>58927.323581999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>16.368701</v>
+        <v>16.368701000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1349.330000</v>
+        <v>1349.33</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.741000</v>
+        <v>-168.74100000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>58937.867503</v>
+        <v>58937.867503000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>16.371630</v>
+        <v>16.37163</v>
       </c>
       <c r="AG9" s="1">
-        <v>1362.450000</v>
+        <v>1362.45</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.753000</v>
+        <v>-178.75299999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>58948.377233</v>
+        <v>58948.377232999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>16.374549</v>
+        <v>16.374548999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>1383.600000</v>
+        <v>1383.6</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.029000</v>
+        <v>-209.029</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>58959.096312</v>
+        <v>58959.096312000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>16.377527</v>
+        <v>16.377527000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1405.800000</v>
+        <v>1405.8</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.894000</v>
+        <v>-252.89400000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>58970.007274</v>
+        <v>58970.007274000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>16.380558</v>
+        <v>16.380558000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1431.050000</v>
+        <v>1431.05</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.571000</v>
+        <v>-312.57100000000003</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>58981.146951</v>
+        <v>58981.146951000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>16.383652</v>
+        <v>16.383652000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1450.830000</v>
+        <v>1450.83</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.273000</v>
+        <v>-364.27300000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>58992.169015</v>
+        <v>58992.169014999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>16.386714</v>
+        <v>16.386714000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1538.000000</v>
+        <v>1538</v>
       </c>
       <c r="BG9" s="1">
-        <v>-609.774000</v>
+        <v>-609.774</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>59003.347879</v>
+        <v>59003.347879000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>16.389819</v>
+        <v>16.389818999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1694.670000</v>
+        <v>1694.67</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1048.080000</v>
+        <v>-1048.08</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>59014.552969</v>
+        <v>59014.552968999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>16.392931</v>
+        <v>16.392931000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1992.060000</v>
+        <v>1992.06</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1804.370000</v>
+        <v>-1804.37</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>59025.491740</v>
+        <v>59025.491739999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>16.395970</v>
+        <v>16.395969999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>2380.150000</v>
+        <v>2380.15</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2671.940000</v>
+        <v>-2671.94</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>59036.695408</v>
@@ -2505,60 +2921,60 @@
         <v>16.399082</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2867.760000</v>
+        <v>2867.76</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3616.150000</v>
+        <v>-3616.15</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>59048.348382</v>
+        <v>59048.348381999996</v>
       </c>
       <c r="CD9" s="1">
-        <v>16.402319</v>
+        <v>16.402318999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4275.220000</v>
+        <v>4275.22</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5874.770000</v>
+        <v>-5874.77</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>58875.611650</v>
+        <v>58875.611649999999</v>
       </c>
       <c r="B10" s="1">
-        <v>16.354337</v>
+        <v>16.354337000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1248.550000</v>
+        <v>1248.55</v>
       </c>
       <c r="D10" s="1">
-        <v>-303.772000</v>
+        <v>-303.77199999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>58885.711188</v>
+        <v>58885.711188000001</v>
       </c>
       <c r="G10" s="1">
         <v>16.357142</v>
       </c>
       <c r="H10" s="1">
-        <v>1272.770000</v>
+        <v>1272.77</v>
       </c>
       <c r="I10" s="1">
-        <v>-262.274000</v>
+        <v>-262.274</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>58896.237318</v>
@@ -2567,435 +2983,435 @@
         <v>16.360066</v>
       </c>
       <c r="M10" s="1">
-        <v>1307.640000</v>
+        <v>1307.6400000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-200.322000</v>
+        <v>-200.322</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>58906.639417</v>
+        <v>58906.639416999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>16.362955</v>
+        <v>16.362954999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1319.140000</v>
+        <v>1319.14</v>
       </c>
       <c r="S10" s="1">
-        <v>-182.815000</v>
+        <v>-182.815</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>58917.172463</v>
+        <v>58917.172463000003</v>
       </c>
       <c r="V10" s="1">
-        <v>16.365881</v>
+        <v>16.365881000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1332.010000</v>
+        <v>1332.01</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.080000</v>
+        <v>-170.08</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>58927.673724</v>
       </c>
       <c r="AA10" s="1">
-        <v>16.368798</v>
+        <v>16.368798000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>1349.530000</v>
+        <v>1349.53</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.690000</v>
+        <v>-168.69</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>58938.312911</v>
+        <v>58938.312911000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>16.371754</v>
+        <v>16.371753999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1362.470000</v>
+        <v>1362.47</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.808000</v>
+        <v>-178.80799999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>58948.790432</v>
+        <v>58948.790432000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>16.374664</v>
+        <v>16.374663999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1383.620000</v>
+        <v>1383.62</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.988000</v>
+        <v>-208.988</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>58959.404787</v>
+        <v>58959.404786999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>16.377612</v>
+        <v>16.377611999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1405.800000</v>
+        <v>1405.8</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.850000</v>
+        <v>-252.85</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>58970.372820</v>
+        <v>58970.372819999997</v>
       </c>
       <c r="AU10" s="1">
-        <v>16.380659</v>
+        <v>16.380659000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1431.040000</v>
+        <v>1431.04</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.578000</v>
+        <v>-312.57799999999997</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>58981.508007</v>
+        <v>58981.508006999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>16.383752</v>
+        <v>16.383752000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1450.850000</v>
+        <v>1450.85</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.270000</v>
+        <v>-364.27</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>58992.530102</v>
+        <v>58992.530101999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>16.386814</v>
+        <v>16.386814000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1538.020000</v>
+        <v>1538.02</v>
       </c>
       <c r="BG10" s="1">
-        <v>-609.759000</v>
+        <v>-609.75900000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>59004.096311</v>
+        <v>59004.096311000001</v>
       </c>
       <c r="BJ10" s="1">
         <v>16.390027</v>
       </c>
       <c r="BK10" s="1">
-        <v>1694.690000</v>
+        <v>1694.69</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1048.010000</v>
+        <v>-1048.01</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>59014.977546</v>
+        <v>59014.977546000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>16.393049</v>
+        <v>16.393049000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1992.210000</v>
+        <v>1992.21</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1804.380000</v>
+        <v>-1804.38</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>59025.924250</v>
+        <v>59025.924249999996</v>
       </c>
       <c r="BT10" s="1">
-        <v>16.396090</v>
+        <v>16.396090000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>2380.440000</v>
+        <v>2380.44</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2671.730000</v>
+        <v>-2671.73</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>59037.121933</v>
+        <v>59037.121933000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>16.399201</v>
+        <v>16.399201000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2868.640000</v>
+        <v>2868.64</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3615.560000</v>
+        <v>-3615.56</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>59048.889548</v>
+        <v>59048.889547999999</v>
       </c>
       <c r="CD10" s="1">
         <v>16.402469</v>
       </c>
       <c r="CE10" s="1">
-        <v>4293.470000</v>
+        <v>4293.47</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5870.280000</v>
+        <v>-5870.28</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>58875.970754</v>
+        <v>58875.970754000002</v>
       </c>
       <c r="B11" s="1">
         <v>16.354436</v>
       </c>
       <c r="C11" s="1">
-        <v>1248.350000</v>
+        <v>1248.3499999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-303.275000</v>
+        <v>-303.27499999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>58886.082692</v>
+        <v>58886.082692000004</v>
       </c>
       <c r="G11" s="1">
-        <v>16.357245</v>
+        <v>16.357244999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1271.660000</v>
+        <v>1271.6600000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-261.896000</v>
+        <v>-261.89600000000002</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>58896.585013</v>
+        <v>58896.585013000004</v>
       </c>
       <c r="L11" s="1">
         <v>16.360163</v>
       </c>
       <c r="M11" s="1">
-        <v>1307.520000</v>
+        <v>1307.52</v>
       </c>
       <c r="N11" s="1">
-        <v>-200.245000</v>
+        <v>-200.245</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>58906.989561</v>
+        <v>58906.989561000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>16.363053</v>
+        <v>16.363053000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1319.140000</v>
+        <v>1319.14</v>
       </c>
       <c r="S11" s="1">
-        <v>-182.899000</v>
+        <v>-182.899</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>58917.519627</v>
+        <v>58917.519627000001</v>
       </c>
       <c r="V11" s="1">
-        <v>16.365978</v>
+        <v>16.365977999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>1332.100000</v>
+        <v>1332.1</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.005000</v>
+        <v>-170.005</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>58928.107228</v>
+        <v>58928.107228000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>16.368919</v>
+        <v>16.368919000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>1349.280000</v>
+        <v>1349.28</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.685000</v>
+        <v>-168.685</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>58938.584718</v>
+        <v>58938.584717999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>16.371829</v>
+        <v>16.371829000000002</v>
       </c>
       <c r="AG11" s="1">
-        <v>1362.510000</v>
+        <v>1362.51</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.790000</v>
+        <v>-178.79</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>58949.075600</v>
+        <v>58949.075599999996</v>
       </c>
       <c r="AK11" s="1">
-        <v>16.374743</v>
+        <v>16.374742999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1383.610000</v>
+        <v>1383.61</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.011000</v>
+        <v>-209.011</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>58959.765907</v>
+        <v>58959.765907000001</v>
       </c>
       <c r="AP11" s="1">
         <v>16.377713</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1405.830000</v>
+        <v>1405.83</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.871000</v>
+        <v>-252.87100000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>58970.737411</v>
+        <v>58970.737411000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>16.380760</v>
+        <v>16.380759999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1431.030000</v>
+        <v>1431.03</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.555000</v>
+        <v>-312.55500000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>58981.866118</v>
+        <v>58981.866117999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>16.383852</v>
+        <v>16.383852000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1450.860000</v>
+        <v>1450.86</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.210000</v>
+        <v>-364.21</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>58993.250791</v>
+        <v>58993.250790999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>16.387014</v>
+        <v>16.387014000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1537.990000</v>
+        <v>1537.99</v>
       </c>
       <c r="BG11" s="1">
-        <v>-609.793000</v>
+        <v>-609.79300000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>59004.469303</v>
+        <v>59004.469302999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>16.390130</v>
+        <v>16.390129999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1694.780000</v>
+        <v>1694.78</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1048.040000</v>
+        <v>-1048.04</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>59015.373848</v>
+        <v>59015.373848000003</v>
       </c>
       <c r="BO11" s="1">
-        <v>16.393159</v>
+        <v>16.393159000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1992.260000</v>
+        <v>1992.26</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1804.300000</v>
+        <v>-1804.3</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>59026.331994</v>
@@ -3004,135 +3420,135 @@
         <v>16.396203</v>
       </c>
       <c r="BU11" s="1">
-        <v>2380.460000</v>
+        <v>2380.46</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2671.300000</v>
+        <v>-2671.3</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>59037.849067</v>
+        <v>59037.849067000003</v>
       </c>
       <c r="BY11" s="1">
         <v>16.399403</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2867.770000</v>
+        <v>2867.77</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3615.310000</v>
+        <v>-3615.31</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>59049.746145</v>
+        <v>59049.746144999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>16.402707</v>
+        <v>16.402706999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4276.780000</v>
+        <v>4276.78</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5876.640000</v>
+        <v>-5876.64</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>58876.315474</v>
+        <v>58876.315474000003</v>
       </c>
       <c r="B12" s="1">
-        <v>16.354532</v>
+        <v>16.354531999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1248.560000</v>
+        <v>1248.56</v>
       </c>
       <c r="D12" s="1">
-        <v>-304.010000</v>
+        <v>-304.01</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>58886.425464</v>
       </c>
       <c r="G12" s="1">
-        <v>16.357340</v>
+        <v>16.357340000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1272.820000</v>
+        <v>1272.82</v>
       </c>
       <c r="I12" s="1">
-        <v>-261.761000</v>
+        <v>-261.76100000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>58896.931225</v>
       </c>
       <c r="L12" s="1">
-        <v>16.360259</v>
+        <v>16.360258999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1307.450000</v>
+        <v>1307.45</v>
       </c>
       <c r="N12" s="1">
-        <v>-200.299000</v>
+        <v>-200.29900000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>58907.409207</v>
+        <v>58907.409206999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>16.363169</v>
+        <v>16.363168999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1319.150000</v>
+        <v>1319.15</v>
       </c>
       <c r="S12" s="1">
-        <v>-182.813000</v>
+        <v>-182.81299999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>58917.938745</v>
+        <v>58917.938744999999</v>
       </c>
       <c r="V12" s="1">
         <v>16.366094</v>
       </c>
       <c r="W12" s="1">
-        <v>1332.070000</v>
+        <v>1332.07</v>
       </c>
       <c r="X12" s="1">
-        <v>-169.992000</v>
+        <v>-169.99199999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>58928.383005</v>
+        <v>58928.383005000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>16.368995</v>
+        <v>16.368995000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1349.450000</v>
+        <v>1349.45</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.748000</v>
+        <v>-168.74799999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>58938.927486</v>
@@ -3141,28 +3557,28 @@
         <v>16.371924</v>
       </c>
       <c r="AG12" s="1">
-        <v>1362.500000</v>
+        <v>1362.5</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.786000</v>
+        <v>-178.786</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>58949.425313</v>
       </c>
       <c r="AK12" s="1">
-        <v>16.374840</v>
+        <v>16.374839999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1383.630000</v>
+        <v>1383.63</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.027000</v>
+        <v>-209.02699999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>58960.125474</v>
@@ -3171,58 +3587,58 @@
         <v>16.377813</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1405.790000</v>
+        <v>1405.79</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.886000</v>
+        <v>-252.886</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>58971.467490</v>
+        <v>58971.467490000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>16.380963</v>
+        <v>16.380963000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1431.040000</v>
+        <v>1431.04</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.555000</v>
+        <v>-312.55500000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>58982.587795</v>
+        <v>58982.587794999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>16.384052</v>
+        <v>16.384052000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1450.870000</v>
+        <v>1450.87</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.189000</v>
+        <v>-364.18900000000002</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>58993.610886</v>
+        <v>58993.610886000002</v>
       </c>
       <c r="BE12" s="1">
         <v>16.387114</v>
       </c>
       <c r="BF12" s="1">
-        <v>1538.010000</v>
+        <v>1538.01</v>
       </c>
       <c r="BG12" s="1">
-        <v>-609.754000</v>
+        <v>-609.75400000000002</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>59004.843321</v>
@@ -3231,285 +3647,285 @@
         <v>16.390234</v>
       </c>
       <c r="BK12" s="1">
-        <v>1694.670000</v>
+        <v>1694.67</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1048.020000</v>
+        <v>-1048.02</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>59015.790520</v>
+        <v>59015.790520000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>16.393275</v>
+        <v>16.393274999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1992.160000</v>
+        <v>1992.16</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1804.180000</v>
+        <v>-1804.18</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>59027.065049</v>
+        <v>59027.065048999997</v>
       </c>
       <c r="BT12" s="1">
         <v>16.396407</v>
       </c>
       <c r="BU12" s="1">
-        <v>2381.100000</v>
+        <v>2381.1</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2671.130000</v>
+        <v>-2671.13</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>59037.961658</v>
       </c>
       <c r="BY12" s="1">
-        <v>16.399434</v>
+        <v>16.399433999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2867.490000</v>
+        <v>2867.49</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3615.420000</v>
+        <v>-3615.42</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>59049.967323</v>
+        <v>59049.967322999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>16.402769</v>
+        <v>16.402768999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4277.440000</v>
+        <v>4277.4399999999996</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5874.390000</v>
+        <v>-5874.39</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>58876.659733</v>
       </c>
       <c r="B13" s="1">
-        <v>16.354628</v>
+        <v>16.354628000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1248.290000</v>
+        <v>1248.29</v>
       </c>
       <c r="D13" s="1">
-        <v>-303.772000</v>
+        <v>-303.77199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>58886.849507</v>
+        <v>58886.849506999999</v>
       </c>
       <c r="G13" s="1">
-        <v>16.357458</v>
+        <v>16.357458000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1272.610000</v>
+        <v>1272.6099999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-261.903000</v>
+        <v>-261.90300000000002</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>58897.367172</v>
+        <v>58897.367171999998</v>
       </c>
       <c r="L13" s="1">
-        <v>16.360380</v>
+        <v>16.360379999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1307.820000</v>
+        <v>1307.82</v>
       </c>
       <c r="N13" s="1">
-        <v>-200.254000</v>
+        <v>-200.25399999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>58907.703800</v>
+        <v>58907.703800000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>16.363251</v>
+        <v>16.363251000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1319.190000</v>
+        <v>1319.19</v>
       </c>
       <c r="S13" s="1">
-        <v>-182.865000</v>
+        <v>-182.86500000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>58918.210553</v>
+        <v>58918.210552999997</v>
       </c>
       <c r="V13" s="1">
-        <v>16.366170</v>
+        <v>16.36617</v>
       </c>
       <c r="W13" s="1">
-        <v>1331.910000</v>
+        <v>1331.91</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.026000</v>
+        <v>-170.02600000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>58928.732717</v>
+        <v>58928.732716999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>16.369092</v>
+        <v>16.369091999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>1349.440000</v>
+        <v>1349.44</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.534000</v>
+        <v>-168.53399999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>58939.270714</v>
+        <v>58939.270713999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>16.372020</v>
+        <v>16.372019999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1362.460000</v>
+        <v>1362.46</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.807000</v>
+        <v>-178.80699999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>58949.772515</v>
+        <v>58949.772514999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>16.374937</v>
+        <v>16.374936999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1383.630000</v>
+        <v>1383.63</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.992000</v>
+        <v>-208.99199999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>58960.844707</v>
+        <v>58960.844706999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>16.378012</v>
+        <v>16.378011999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1405.840000</v>
+        <v>1405.84</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.865000</v>
+        <v>-252.86500000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>58971.856884</v>
+        <v>58971.856884000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>16.381071</v>
+        <v>16.381070999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1431.010000</v>
+        <v>1431.01</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.555000</v>
+        <v>-312.55500000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>58982.961284</v>
+        <v>58982.961283999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>16.384156</v>
+        <v>16.384156000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1450.850000</v>
+        <v>1450.85</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.223000</v>
+        <v>-364.22300000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>58993.971972</v>
+        <v>58993.971971999999</v>
       </c>
       <c r="BE13" s="1">
         <v>16.387214</v>
       </c>
       <c r="BF13" s="1">
-        <v>1538.030000</v>
+        <v>1538.03</v>
       </c>
       <c r="BG13" s="1">
-        <v>-609.727000</v>
+        <v>-609.72699999999998</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>59005.529750</v>
+        <v>59005.529750000002</v>
       </c>
       <c r="BJ13" s="1">
         <v>16.390425</v>
       </c>
       <c r="BK13" s="1">
-        <v>1694.640000</v>
+        <v>1694.64</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1048.080000</v>
+        <v>-1048.08</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>59016.496823</v>
+        <v>59016.496823000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>16.393471</v>
+        <v>16.393471000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1992.150000</v>
+        <v>1992.15</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1804.230000</v>
+        <v>-1804.23</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>59027.191561</v>
@@ -3518,210 +3934,210 @@
         <v>16.396442</v>
       </c>
       <c r="BU13" s="1">
-        <v>2381.250000</v>
+        <v>2381.25</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2670.800000</v>
+        <v>-2670.8</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>59038.395686</v>
+        <v>59038.395686000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>16.399554</v>
+        <v>16.399553999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2867.440000</v>
+        <v>2867.44</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3615.850000</v>
+        <v>-3615.85</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>59050.506970</v>
+        <v>59050.506970000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>16.402919</v>
+        <v>16.402919000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4290.710000</v>
+        <v>4290.71</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5873.300000</v>
+        <v>-5873.3</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>58877.081792</v>
+        <v>58877.081791999997</v>
       </c>
       <c r="B14" s="1">
-        <v>16.354745</v>
+        <v>16.354745000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1248.820000</v>
+        <v>1248.82</v>
       </c>
       <c r="D14" s="1">
-        <v>-303.864000</v>
+        <v>-303.86399999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>58887.127297</v>
+        <v>58887.127296999999</v>
       </c>
       <c r="G14" s="1">
-        <v>16.357535</v>
+        <v>16.357534999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1272.680000</v>
+        <v>1272.68</v>
       </c>
       <c r="I14" s="1">
-        <v>-262.496000</v>
+        <v>-262.49599999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>58897.640470</v>
+        <v>58897.640469999998</v>
       </c>
       <c r="L14" s="1">
-        <v>16.360456</v>
+        <v>16.360455999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1307.550000</v>
+        <v>1307.55</v>
       </c>
       <c r="N14" s="1">
-        <v>-200.164000</v>
+        <v>-200.16399999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>58908.052487</v>
+        <v>58908.052487000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>16.363348</v>
+        <v>16.363347999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>1319.140000</v>
+        <v>1319.14</v>
       </c>
       <c r="S14" s="1">
-        <v>-182.915000</v>
+        <v>-182.91499999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>58918.553288</v>
+        <v>58918.553288000003</v>
       </c>
       <c r="V14" s="1">
-        <v>16.366265</v>
+        <v>16.366264999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1332.100000</v>
+        <v>1332.1</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.021000</v>
+        <v>-170.02099999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>58929.081904</v>
+        <v>58929.081903999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>16.369189</v>
+        <v>16.369188999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1349.360000</v>
+        <v>1349.36</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.752000</v>
+        <v>-168.75200000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>58939.957675</v>
+        <v>58939.957674999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>16.372210</v>
+        <v>16.372209999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1362.490000</v>
+        <v>1362.49</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.847000</v>
+        <v>-178.84700000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>58950.472335</v>
+        <v>58950.472334999999</v>
       </c>
       <c r="AK14" s="1">
         <v>16.375131</v>
       </c>
       <c r="AL14" s="1">
-        <v>1383.570000</v>
+        <v>1383.57</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.996000</v>
+        <v>-208.99600000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>58961.205760</v>
+        <v>58961.205759999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>16.378113</v>
+        <v>16.378112999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1405.810000</v>
+        <v>1405.81</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.889000</v>
+        <v>-252.88900000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>58972.221409</v>
+        <v>58972.221408999998</v>
       </c>
       <c r="AU14" s="1">
         <v>16.381173</v>
       </c>
       <c r="AV14" s="1">
-        <v>1431.050000</v>
+        <v>1431.05</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.550000</v>
+        <v>-312.55</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>58983.342256</v>
+        <v>58983.342256000004</v>
       </c>
       <c r="AZ14" s="1">
         <v>16.384262</v>
       </c>
       <c r="BA14" s="1">
-        <v>1450.850000</v>
+        <v>1450.85</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.182000</v>
+        <v>-364.18200000000002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>58994.653476</v>
@@ -3730,73 +4146,73 @@
         <v>16.387404</v>
       </c>
       <c r="BF14" s="1">
-        <v>1538.010000</v>
+        <v>1538.01</v>
       </c>
       <c r="BG14" s="1">
-        <v>-609.734000</v>
+        <v>-609.73400000000004</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>59005.973173</v>
+        <v>59005.973172999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>16.390548</v>
+        <v>16.390547999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1694.740000</v>
+        <v>1694.74</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1047.920000</v>
+        <v>-1047.92</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>59016.626743</v>
+        <v>59016.626743000001</v>
       </c>
       <c r="BO14" s="1">
         <v>16.393507</v>
       </c>
       <c r="BP14" s="1">
-        <v>1992.100000</v>
+        <v>1992.1</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1804.210000</v>
+        <v>-1804.21</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>59027.607178</v>
+        <v>59027.607177999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>16.396558</v>
+        <v>16.396557999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2381.680000</v>
+        <v>2381.6799999999998</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2670.440000</v>
+        <v>-2670.44</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>59038.820247</v>
+        <v>59038.820247000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>16.399672</v>
+        <v>16.399671999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2868.560000</v>
+        <v>2868.56</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3615.680000</v>
+        <v>-3615.68</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>59051.093278</v>
@@ -3805,816 +4221,816 @@
         <v>16.403081</v>
       </c>
       <c r="CE14" s="1">
-        <v>4288.190000</v>
+        <v>4288.1899999999996</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5859.130000</v>
+        <v>-5859.13</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>58877.359055</v>
+        <v>58877.359055000001</v>
       </c>
       <c r="B15" s="1">
-        <v>16.354822</v>
+        <v>16.354821999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1248.480000</v>
+        <v>1248.48</v>
       </c>
       <c r="D15" s="1">
-        <v>-303.886000</v>
+        <v>-303.88600000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>58887.472979</v>
+        <v>58887.472978999998</v>
       </c>
       <c r="G15" s="1">
-        <v>16.357631</v>
+        <v>16.357631000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1273.040000</v>
+        <v>1273.04</v>
       </c>
       <c r="I15" s="1">
-        <v>-262.765000</v>
+        <v>-262.76499999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>58897.984724</v>
+        <v>58897.984724000002</v>
       </c>
       <c r="L15" s="1">
-        <v>16.360551</v>
+        <v>16.360551000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1307.620000</v>
+        <v>1307.6199999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-200.101000</v>
+        <v>-200.101</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>58908.398430</v>
+        <v>58908.398430000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>16.363444</v>
+        <v>16.363444000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1319.080000</v>
+        <v>1319.08</v>
       </c>
       <c r="S15" s="1">
-        <v>-182.824000</v>
+        <v>-182.82400000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>58919.255624</v>
+        <v>58919.255623999998</v>
       </c>
       <c r="V15" s="1">
-        <v>16.366460</v>
+        <v>16.36646</v>
       </c>
       <c r="W15" s="1">
-        <v>1332.020000</v>
+        <v>1332.02</v>
       </c>
       <c r="X15" s="1">
-        <v>-169.926000</v>
+        <v>-169.92599999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>58929.778747</v>
+        <v>58929.778746999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>16.369383</v>
+        <v>16.369382999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1349.290000</v>
+        <v>1349.29</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.705000</v>
+        <v>-168.70500000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>58940.302860</v>
+        <v>58940.302860000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>16.372306</v>
+        <v>16.372305999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1362.500000</v>
+        <v>1362.5</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.801000</v>
+        <v>-178.80099999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>58950.817551</v>
       </c>
       <c r="AK15" s="1">
-        <v>16.375227</v>
+        <v>16.375226999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1383.610000</v>
+        <v>1383.61</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.010000</v>
+        <v>-209.01</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>58961.562909</v>
       </c>
       <c r="AP15" s="1">
-        <v>16.378212</v>
+        <v>16.378212000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1405.780000</v>
+        <v>1405.78</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.861000</v>
+        <v>-252.86099999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>58972.892654</v>
+        <v>58972.892654000003</v>
       </c>
       <c r="AU15" s="1">
         <v>16.381359</v>
       </c>
       <c r="AV15" s="1">
-        <v>1431.030000</v>
+        <v>1431.03</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.554000</v>
+        <v>-312.55399999999997</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>58984.028675</v>
+        <v>58984.028675000001</v>
       </c>
       <c r="AZ15" s="1">
         <v>16.384452</v>
       </c>
       <c r="BA15" s="1">
-        <v>1450.840000</v>
+        <v>1450.84</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.288000</v>
+        <v>-364.28800000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>58995.084997</v>
+        <v>58995.084996999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>16.387524</v>
+        <v>16.387523999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1538.020000</v>
+        <v>1538.02</v>
       </c>
       <c r="BG15" s="1">
-        <v>-609.712000</v>
+        <v>-609.71199999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>59006.348149</v>
+        <v>59006.348148999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>16.390652</v>
+        <v>16.390651999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1694.650000</v>
+        <v>1694.65</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1047.920000</v>
+        <v>-1047.92</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>59017.037934</v>
       </c>
       <c r="BO15" s="1">
-        <v>16.393622</v>
+        <v>16.393622000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1991.940000</v>
+        <v>1991.94</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1804.060000</v>
+        <v>-1804.06</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>59028.037208</v>
+        <v>59028.037208000002</v>
       </c>
       <c r="BT15" s="1">
         <v>16.396677</v>
       </c>
       <c r="BU15" s="1">
-        <v>2381.900000</v>
+        <v>2381.9</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2670.210000</v>
+        <v>-2670.21</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>59039.239850</v>
+        <v>59039.239849999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>16.399789</v>
+        <v>16.399788999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2868.060000</v>
+        <v>2868.06</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3615.210000</v>
+        <v>-3615.21</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>59051.522816</v>
+        <v>59051.522815999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>16.403201</v>
+        <v>16.403200999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4272.420000</v>
+        <v>4272.42</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5861.520000</v>
+        <v>-5861.52</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>58877.699808</v>
+        <v>58877.699807999998</v>
       </c>
       <c r="B16" s="1">
         <v>16.354917</v>
       </c>
       <c r="C16" s="1">
-        <v>1248.110000</v>
+        <v>1248.1099999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-304.062000</v>
+        <v>-304.06200000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>58887.818727</v>
+        <v>58887.818726999998</v>
       </c>
       <c r="G16" s="1">
-        <v>16.357727</v>
+        <v>16.357727000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1273.010000</v>
+        <v>1273.01</v>
       </c>
       <c r="I16" s="1">
-        <v>-261.965000</v>
+        <v>-261.96499999999997</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>58898.331431</v>
+        <v>58898.331430999999</v>
       </c>
       <c r="L16" s="1">
-        <v>16.360648</v>
+        <v>16.360648000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1307.490000</v>
+        <v>1307.49</v>
       </c>
       <c r="N16" s="1">
-        <v>-200.223000</v>
+        <v>-200.22300000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>58909.096601</v>
+        <v>58909.096600999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>16.363638</v>
+        <v>16.363638000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>1319.090000</v>
+        <v>1319.09</v>
       </c>
       <c r="S16" s="1">
-        <v>-182.826000</v>
+        <v>-182.82599999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>58919.585464</v>
+        <v>58919.585464000003</v>
       </c>
       <c r="V16" s="1">
-        <v>16.366552</v>
+        <v>16.366551999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1331.980000</v>
+        <v>1331.98</v>
       </c>
       <c r="X16" s="1">
-        <v>-169.946000</v>
+        <v>-169.946</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>58930.126938</v>
+        <v>58930.126938000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>16.369480</v>
+        <v>16.369479999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1349.370000</v>
+        <v>1349.37</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.708000</v>
+        <v>-168.708</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>58940.645422</v>
+        <v>58940.645422000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>16.372402</v>
+        <v>16.372402000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1362.460000</v>
+        <v>1362.46</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.776000</v>
+        <v>-178.77600000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>58951.174669</v>
       </c>
       <c r="AK16" s="1">
-        <v>16.375326</v>
+        <v>16.375326000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1383.610000</v>
+        <v>1383.61</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.019000</v>
+        <v>-209.01900000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>58962.241408</v>
+        <v>58962.241408000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>16.378400</v>
+        <v>16.378399999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1405.820000</v>
+        <v>1405.82</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.869000</v>
+        <v>-252.869</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>58973.348352</v>
+        <v>58973.348352000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>16.381486</v>
+        <v>16.381485999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1430.990000</v>
+        <v>1430.99</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.561000</v>
+        <v>-312.56099999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>58984.426465</v>
+        <v>58984.426464999997</v>
       </c>
       <c r="AZ16" s="1">
         <v>16.384563</v>
       </c>
       <c r="BA16" s="1">
-        <v>1450.840000</v>
+        <v>1450.84</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.206000</v>
+        <v>-364.20600000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>58995.446579</v>
+        <v>58995.446579000003</v>
       </c>
       <c r="BE16" s="1">
-        <v>16.387624</v>
+        <v>16.387623999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1537.940000</v>
+        <v>1537.94</v>
       </c>
       <c r="BG16" s="1">
-        <v>-609.710000</v>
+        <v>-609.71</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>59006.722629</v>
+        <v>59006.722629000004</v>
       </c>
       <c r="BJ16" s="1">
         <v>16.390756</v>
       </c>
       <c r="BK16" s="1">
-        <v>1694.640000</v>
+        <v>1694.64</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1047.910000</v>
+        <v>-1047.9100000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>59017.436711</v>
+        <v>59017.436711000002</v>
       </c>
       <c r="BO16" s="1">
         <v>16.393732</v>
       </c>
       <c r="BP16" s="1">
-        <v>1992.160000</v>
+        <v>1992.16</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1804.070000</v>
+        <v>-1804.07</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>59028.461287</v>
+        <v>59028.461286999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>16.396795</v>
+        <v>16.396795000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>2382.060000</v>
+        <v>2382.06</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2670.130000</v>
+        <v>-2670.13</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>59039.663463</v>
+        <v>59039.663462999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>16.399907</v>
+        <v>16.399906999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2867.750000</v>
+        <v>2867.75</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3615.600000</v>
+        <v>-3615.6</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>59052.037128</v>
+        <v>59052.037128000004</v>
       </c>
       <c r="CD16" s="1">
-        <v>16.403344</v>
+        <v>16.403344000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4272.060000</v>
+        <v>4272.0600000000004</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5864.270000</v>
+        <v>-5864.27</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>58878.043039</v>
+        <v>58878.043038999996</v>
       </c>
       <c r="B17" s="1">
-        <v>16.355012</v>
+        <v>16.355011999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1248.590000</v>
+        <v>1248.5899999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-303.947000</v>
+        <v>-303.947</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>58888.514577</v>
+        <v>58888.514577000002</v>
       </c>
       <c r="G17" s="1">
-        <v>16.357921</v>
+        <v>16.357921000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1272.840000</v>
+        <v>1272.8399999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-262.267000</v>
+        <v>-262.267</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>58899.024837</v>
+        <v>58899.024836999997</v>
       </c>
       <c r="L17" s="1">
-        <v>16.360840</v>
+        <v>16.36084</v>
       </c>
       <c r="M17" s="1">
-        <v>1307.670000</v>
+        <v>1307.67</v>
       </c>
       <c r="N17" s="1">
-        <v>-200.369000</v>
+        <v>-200.369</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>58909.446740</v>
+        <v>58909.446739999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>16.363735</v>
+        <v>16.363734999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>1319.190000</v>
+        <v>1319.19</v>
       </c>
       <c r="S17" s="1">
-        <v>-182.793000</v>
+        <v>-182.79300000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>58919.927704</v>
+        <v>58919.927704000002</v>
       </c>
       <c r="V17" s="1">
         <v>16.366647</v>
       </c>
       <c r="W17" s="1">
-        <v>1332.030000</v>
+        <v>1332.03</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.078000</v>
+        <v>-170.078</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>58930.474665</v>
+        <v>58930.474665000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>16.369576</v>
+        <v>16.369575999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1349.250000</v>
+        <v>1349.25</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.884000</v>
+        <v>-168.88399999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>58941.296383</v>
+        <v>58941.296383000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>16.372582</v>
+        <v>16.372582000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1362.470000</v>
+        <v>1362.47</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.846000</v>
+        <v>-178.846</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>58951.894442</v>
+        <v>58951.894441999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>16.375526</v>
+        <v>16.375526000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1383.580000</v>
+        <v>1383.58</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.013000</v>
+        <v>-209.01300000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>58962.669454</v>
+        <v>58962.669454000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>16.378519</v>
+        <v>16.378519000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1405.860000</v>
+        <v>1405.86</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.847000</v>
+        <v>-252.84700000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>58973.710896</v>
+        <v>58973.710895999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>16.381586</v>
+        <v>16.381585999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1430.990000</v>
+        <v>1430.99</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.578000</v>
+        <v>-312.57799999999997</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>58984.830742</v>
+        <v>58984.830741999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>16.384675</v>
+        <v>16.384675000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1450.820000</v>
+        <v>1450.82</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.232000</v>
+        <v>-364.23200000000003</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>58995.804195</v>
+        <v>58995.804194999997</v>
       </c>
       <c r="BE17" s="1">
-        <v>16.387723</v>
+        <v>16.387723000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1537.980000</v>
+        <v>1537.98</v>
       </c>
       <c r="BG17" s="1">
-        <v>-609.749000</v>
+        <v>-609.74900000000002</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>59007.143270</v>
+        <v>59007.14327</v>
       </c>
       <c r="BJ17" s="1">
-        <v>16.390873</v>
+        <v>16.390872999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1694.750000</v>
+        <v>1694.75</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1047.940000</v>
+        <v>-1047.94</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>59017.888567</v>
+        <v>59017.888567000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>16.393858</v>
+        <v>16.393858000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1992.250000</v>
+        <v>1992.25</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1804.060000</v>
+        <v>-1804.06</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>59028.878423</v>
+        <v>59028.878423000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>16.396911</v>
+        <v>16.396910999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2382.730000</v>
+        <v>2382.73</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2669.860000</v>
+        <v>-2669.86</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>59040.083576</v>
+        <v>59040.083575999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>16.400023</v>
+        <v>16.400023000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2867.090000</v>
+        <v>2867.09</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3615.890000</v>
+        <v>-3615.89</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>59052.590168</v>
+        <v>59052.590168000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>16.403497</v>
+        <v>16.403497000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>4282.140000</v>
+        <v>4282.1400000000003</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5858.960000</v>
+        <v>-5858.96</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>58878.724573</v>
       </c>
       <c r="B18" s="1">
-        <v>16.355201</v>
+        <v>16.355201000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1248.390000</v>
+        <v>1248.3900000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-303.881000</v>
+        <v>-303.88099999999997</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>58888.862767</v>
+        <v>58888.862766999999</v>
       </c>
       <c r="G18" s="1">
         <v>16.358017</v>
       </c>
       <c r="H18" s="1">
-        <v>1272.850000</v>
+        <v>1272.8499999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-262.628000</v>
+        <v>-262.62799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>58899.374978</v>
@@ -4623,512 +5039,512 @@
         <v>16.360937</v>
       </c>
       <c r="M18" s="1">
-        <v>1307.570000</v>
+        <v>1307.57</v>
       </c>
       <c r="N18" s="1">
-        <v>-200.030000</v>
+        <v>-200.03</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>58909.796420</v>
+        <v>58909.796419999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>16.363832</v>
+        <v>16.363831999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1319.190000</v>
+        <v>1319.19</v>
       </c>
       <c r="S18" s="1">
-        <v>-182.856000</v>
+        <v>-182.85599999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>58920.583451</v>
+        <v>58920.583450999999</v>
       </c>
       <c r="V18" s="1">
-        <v>16.366829</v>
+        <v>16.366828999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1331.790000</v>
+        <v>1331.79</v>
       </c>
       <c r="X18" s="1">
-        <v>-169.981000</v>
+        <v>-169.98099999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>58931.132860</v>
+        <v>58931.132859999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>16.369759</v>
+        <v>16.369758999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1349.400000</v>
+        <v>1349.4</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.691000</v>
+        <v>-168.691</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>58941.678266</v>
+        <v>58941.678266000003</v>
       </c>
       <c r="AF18" s="1">
         <v>16.372688</v>
       </c>
       <c r="AG18" s="1">
-        <v>1362.430000</v>
+        <v>1362.43</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.711000</v>
+        <v>-178.71100000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>58952.233665</v>
       </c>
       <c r="AK18" s="1">
-        <v>16.375620</v>
+        <v>16.375620000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1383.590000</v>
+        <v>1383.59</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.021000</v>
+        <v>-209.02099999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>58963.049426</v>
+        <v>58963.049425999998</v>
       </c>
       <c r="AP18" s="1">
         <v>16.378625</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1405.850000</v>
+        <v>1405.85</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.836000</v>
+        <v>-252.83600000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>58974.077457</v>
+        <v>58974.077456999999</v>
       </c>
       <c r="AU18" s="1">
         <v>16.381688</v>
       </c>
       <c r="AV18" s="1">
-        <v>1430.940000</v>
+        <v>1430.94</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.605000</v>
+        <v>-312.60500000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>58985.415025</v>
+        <v>58985.415025000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>16.384838</v>
+        <v>16.384837999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1450.840000</v>
+        <v>1450.84</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.262000</v>
+        <v>-364.262</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>58996.221857</v>
+        <v>58996.221856999997</v>
       </c>
       <c r="BE18" s="1">
         <v>16.387839</v>
       </c>
       <c r="BF18" s="1">
-        <v>1538.010000</v>
+        <v>1538.01</v>
       </c>
       <c r="BG18" s="1">
-        <v>-609.728000</v>
+        <v>-609.72799999999995</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>59007.492420</v>
+        <v>59007.492420000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>16.390970</v>
+        <v>16.390969999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1694.670000</v>
+        <v>1694.67</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1047.920000</v>
+        <v>-1047.92</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>59018.250186</v>
+        <v>59018.250185999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>16.393958</v>
+        <v>16.393958000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1992.320000</v>
+        <v>1992.32</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1804.090000</v>
+        <v>-1804.09</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>59029.307959</v>
+        <v>59029.307958999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>16.397030</v>
+        <v>16.397030000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>2383.070000</v>
+        <v>2383.0700000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2670.140000</v>
+        <v>-2670.14</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>59040.528491</v>
+        <v>59040.528490999997</v>
       </c>
       <c r="BY18" s="1">
         <v>16.400147</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2867.750000</v>
+        <v>2867.75</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3615.960000</v>
+        <v>-3615.96</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>59053.117912</v>
+        <v>59053.117912000002</v>
       </c>
       <c r="CD18" s="1">
         <v>16.403644</v>
       </c>
       <c r="CE18" s="1">
-        <v>4274.760000</v>
+        <v>4274.76</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5869.780000</v>
+        <v>-5869.78</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>58879.066286</v>
+        <v>58879.066286000001</v>
       </c>
       <c r="B19" s="1">
-        <v>16.355296</v>
+        <v>16.355295999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1248.330000</v>
+        <v>1248.33</v>
       </c>
       <c r="D19" s="1">
-        <v>-303.548000</v>
+        <v>-303.548</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>58889.209006</v>
+        <v>58889.209005999997</v>
       </c>
       <c r="G19" s="1">
         <v>16.358114</v>
       </c>
       <c r="H19" s="1">
-        <v>1272.700000</v>
+        <v>1272.7</v>
       </c>
       <c r="I19" s="1">
-        <v>-261.880000</v>
+        <v>-261.88</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>58899.719201</v>
       </c>
       <c r="L19" s="1">
-        <v>16.361033</v>
+        <v>16.361032999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1307.190000</v>
+        <v>1307.19</v>
       </c>
       <c r="N19" s="1">
-        <v>-200.066000</v>
+        <v>-200.066</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>58910.470019</v>
       </c>
       <c r="Q19" s="1">
-        <v>16.364019</v>
+        <v>16.364018999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1319.140000</v>
+        <v>1319.14</v>
       </c>
       <c r="S19" s="1">
-        <v>-182.943000</v>
+        <v>-182.94300000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>58920.954949</v>
+        <v>58920.954948999999</v>
       </c>
       <c r="V19" s="1">
-        <v>16.366932</v>
+        <v>16.366931999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>1331.990000</v>
+        <v>1331.99</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.065000</v>
+        <v>-170.065</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>58931.521719</v>
+        <v>58931.521718999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>16.369867</v>
+        <v>16.369866999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1349.360000</v>
+        <v>1349.36</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.724000</v>
+        <v>-168.72399999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>58942.019513</v>
+        <v>58942.019512999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>16.372783</v>
+        <v>16.372782999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>1362.530000</v>
+        <v>1362.53</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.818000</v>
+        <v>-178.81800000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>58952.574875</v>
+        <v>58952.574874999998</v>
       </c>
       <c r="AK19" s="1">
         <v>16.375715</v>
       </c>
       <c r="AL19" s="1">
-        <v>1383.590000</v>
+        <v>1383.59</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.013000</v>
+        <v>-209.01300000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>58963.410225</v>
       </c>
       <c r="AP19" s="1">
-        <v>16.378725</v>
+        <v>16.378724999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1405.810000</v>
+        <v>1405.81</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.831000</v>
+        <v>-252.83099999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>58974.502511</v>
+        <v>58974.502510999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>16.381806</v>
+        <v>16.381806000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1430.980000</v>
+        <v>1430.98</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.541000</v>
+        <v>-312.541</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>58985.537504</v>
       </c>
       <c r="AZ19" s="1">
-        <v>16.384872</v>
+        <v>16.384872000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1450.870000</v>
+        <v>1450.87</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.208000</v>
+        <v>-364.20800000000003</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>58996.530369</v>
       </c>
       <c r="BE19" s="1">
-        <v>16.387925</v>
+        <v>16.387924999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1538.000000</v>
+        <v>1538</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.703000</v>
+        <v>-609.70299999999997</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>59007.871395</v>
+        <v>59007.871395000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>16.391075</v>
+        <v>16.391075000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1694.670000</v>
+        <v>1694.67</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1047.990000</v>
+        <v>-1047.99</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>59018.671252</v>
       </c>
       <c r="BO19" s="1">
-        <v>16.394075</v>
+        <v>16.394075000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1992.000000</v>
+        <v>1992</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1803.960000</v>
+        <v>-1803.96</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>59029.737710</v>
+        <v>59029.737710000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>16.397149</v>
+        <v>16.397148999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2383.480000</v>
+        <v>2383.48</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2670.440000</v>
+        <v>-2670.44</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>59040.955046</v>
+        <v>59040.955046000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>16.400265</v>
+        <v>16.400265000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2867.170000</v>
+        <v>2867.17</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3614.830000</v>
+        <v>-3614.83</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>59053.637253</v>
+        <v>59053.637253000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>16.403788</v>
+        <v>16.403787999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>4286.720000</v>
+        <v>4286.72</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5875.500000</v>
+        <v>-5875.5</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>58879.409021</v>
+        <v>58879.409020999999</v>
       </c>
       <c r="B20" s="1">
-        <v>16.355391</v>
+        <v>16.355391000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1248.850000</v>
+        <v>1248.8499999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-303.918000</v>
+        <v>-303.91800000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>58889.873616</v>
+        <v>58889.873615999997</v>
       </c>
       <c r="G20" s="1">
-        <v>16.358298</v>
+        <v>16.358298000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1273.180000</v>
+        <v>1273.18</v>
       </c>
       <c r="I20" s="1">
-        <v>-261.903000</v>
+        <v>-261.90300000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>58900.381362</v>
@@ -5137,360 +5553,360 @@
         <v>16.361217</v>
       </c>
       <c r="M20" s="1">
-        <v>1307.710000</v>
+        <v>1307.71</v>
       </c>
       <c r="N20" s="1">
-        <v>-200.259000</v>
+        <v>-200.25899999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>58910.838514</v>
+        <v>58910.838514000003</v>
       </c>
       <c r="Q20" s="1">
-        <v>16.364122</v>
+        <v>16.364121999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>1319.100000</v>
+        <v>1319.1</v>
       </c>
       <c r="S20" s="1">
-        <v>-182.851000</v>
+        <v>-182.851</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>58921.300661</v>
+        <v>58921.300661000001</v>
       </c>
       <c r="V20" s="1">
-        <v>16.367028</v>
+        <v>16.367028000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1331.950000</v>
+        <v>1331.95</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.048000</v>
+        <v>-170.048</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>58931.867440</v>
+        <v>58931.867440000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>16.369963</v>
+        <v>16.369962999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>1349.420000</v>
+        <v>1349.42</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.541000</v>
+        <v>-168.541</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>58942.366714</v>
+        <v>58942.366714000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>16.372880</v>
+        <v>16.372879999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1362.510000</v>
+        <v>1362.51</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.785000</v>
+        <v>-178.785</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>58953.000976</v>
+        <v>58953.000976000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>16.375834</v>
+        <v>16.375834000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1383.570000</v>
+        <v>1383.57</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.018000</v>
+        <v>-209.018</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>58963.827612</v>
+        <v>58963.827612000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>16.378841</v>
+        <v>16.378841000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1405.770000</v>
+        <v>1405.77</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.862000</v>
+        <v>-252.86199999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>58974.809203</v>
+        <v>58974.809202999997</v>
       </c>
       <c r="AU20" s="1">
         <v>16.381891</v>
       </c>
       <c r="AV20" s="1">
-        <v>1430.960000</v>
+        <v>1430.96</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.566000</v>
+        <v>-312.56599999999997</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>58985.898097</v>
+        <v>58985.898096999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>16.384972</v>
+        <v>16.384972000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1450.840000</v>
+        <v>1450.84</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.243000</v>
+        <v>-364.24299999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>58996.891953</v>
+        <v>58996.891952999998</v>
       </c>
       <c r="BE20" s="1">
         <v>16.388026</v>
       </c>
       <c r="BF20" s="1">
-        <v>1538.000000</v>
+        <v>1538</v>
       </c>
       <c r="BG20" s="1">
-        <v>-609.659000</v>
+        <v>-609.65899999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>59008.246833</v>
+        <v>59008.246832999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>16.391180</v>
+        <v>16.391179999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1694.590000</v>
+        <v>1694.59</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1047.900000</v>
+        <v>-1047.9000000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>59019.490149</v>
+        <v>59019.490148999997</v>
       </c>
       <c r="BO20" s="1">
-        <v>16.394303</v>
+        <v>16.394303000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1992.050000</v>
+        <v>1992.05</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1804.150000</v>
+        <v>-1804.15</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>59030.163095</v>
+        <v>59030.163095000004</v>
       </c>
       <c r="BT20" s="1">
         <v>16.397268</v>
       </c>
       <c r="BU20" s="1">
-        <v>2383.600000</v>
+        <v>2383.6</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2670.350000</v>
+        <v>-2670.35</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>59041.373674</v>
+        <v>59041.373674000002</v>
       </c>
       <c r="BY20" s="1">
         <v>16.400382</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2867.160000</v>
+        <v>2867.16</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3614.790000</v>
+        <v>-3614.79</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>59054.157062</v>
+        <v>59054.157061999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>16.403933</v>
+        <v>16.403932999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>4292.330000</v>
+        <v>4292.33</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5861.960000</v>
+        <v>-5861.96</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>58880.071179</v>
+        <v>58880.071178999999</v>
       </c>
       <c r="B21" s="1">
-        <v>16.355575</v>
+        <v>16.355575000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>1248.550000</v>
+        <v>1248.55</v>
       </c>
       <c r="D21" s="1">
-        <v>-303.615000</v>
+        <v>-303.61500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>58890.247102</v>
+        <v>58890.247102000001</v>
       </c>
       <c r="G21" s="1">
-        <v>16.358402</v>
+        <v>16.358402000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>1273.190000</v>
+        <v>1273.19</v>
       </c>
       <c r="I21" s="1">
-        <v>-261.191000</v>
+        <v>-261.19099999999997</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>58900.756368</v>
+        <v>58900.756368000002</v>
       </c>
       <c r="L21" s="1">
         <v>16.361321</v>
       </c>
       <c r="M21" s="1">
-        <v>1307.540000</v>
+        <v>1307.54</v>
       </c>
       <c r="N21" s="1">
-        <v>-200.185000</v>
+        <v>-200.185</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>58911.189229</v>
+        <v>58911.189229000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>16.364219</v>
+        <v>16.364218999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1319.060000</v>
+        <v>1319.06</v>
       </c>
       <c r="S21" s="1">
-        <v>-182.818000</v>
+        <v>-182.81800000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>58921.644357</v>
+        <v>58921.644356999997</v>
       </c>
       <c r="V21" s="1">
-        <v>16.367123</v>
+        <v>16.367122999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1332.070000</v>
+        <v>1332.07</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.099000</v>
+        <v>-170.09899999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>58932.217611</v>
       </c>
       <c r="AA21" s="1">
-        <v>16.370060</v>
+        <v>16.370059999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1349.450000</v>
+        <v>1349.45</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.777000</v>
+        <v>-168.77699999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>58942.792313</v>
+        <v>58942.792312999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>16.372998</v>
+        <v>16.372997999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1362.510000</v>
+        <v>1362.51</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.779000</v>
+        <v>-178.779</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>58953.278203</v>
+        <v>58953.278203000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>16.375911</v>
+        <v>16.375910999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1383.620000</v>
+        <v>1383.62</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.999000</v>
+        <v>-208.999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>58964.128716</v>
+        <v>58964.128715999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>16.378925</v>
+        <v>16.378924999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1405.830000</v>
+        <v>1405.83</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.869000</v>
+        <v>-252.869</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>58975.172607</v>
@@ -5499,799 +5915,799 @@
         <v>16.381992</v>
       </c>
       <c r="AV21" s="1">
-        <v>1430.920000</v>
+        <v>1430.92</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.568000</v>
+        <v>-312.56799999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>58986.257696</v>
+        <v>58986.257696000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>16.385072</v>
+        <v>16.385072000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1450.800000</v>
+        <v>1450.8</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.203000</v>
+        <v>-364.20299999999997</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>58997.253045</v>
+        <v>58997.253044999998</v>
       </c>
       <c r="BE21" s="1">
         <v>16.388126</v>
       </c>
       <c r="BF21" s="1">
-        <v>1538.010000</v>
+        <v>1538.01</v>
       </c>
       <c r="BG21" s="1">
-        <v>-609.698000</v>
+        <v>-609.69799999999998</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>59008.997281</v>
+        <v>59008.997281000004</v>
       </c>
       <c r="BJ21" s="1">
-        <v>16.391388</v>
+        <v>16.391387999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1694.670000</v>
+        <v>1694.67</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1048.000000</v>
+        <v>-1048</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>59019.908275</v>
+        <v>59019.908275000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>16.394419</v>
+        <v>16.394418999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1992.090000</v>
+        <v>1992.09</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1803.870000</v>
+        <v>-1803.87</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>59030.576760</v>
+        <v>59030.576760000004</v>
       </c>
       <c r="BT21" s="1">
         <v>16.397382</v>
       </c>
       <c r="BU21" s="1">
-        <v>2384.040000</v>
+        <v>2384.04</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2670.690000</v>
+        <v>-2670.69</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>59041.820546</v>
+        <v>59041.820546000003</v>
       </c>
       <c r="BY21" s="1">
         <v>16.400506</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2867.770000</v>
+        <v>2867.77</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3615.420000</v>
+        <v>-3615.42</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>59054.980916</v>
       </c>
       <c r="CD21" s="1">
-        <v>16.404161</v>
+        <v>16.404160999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>4277.300000</v>
+        <v>4277.3</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5856.300000</v>
+        <v>-5856.3</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>58880.430315</v>
+        <v>58880.430314999998</v>
       </c>
       <c r="B22" s="1">
-        <v>16.355675</v>
+        <v>16.355675000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>1248.590000</v>
+        <v>1248.5899999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-303.632000</v>
+        <v>-303.63200000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>58890.587854</v>
+        <v>58890.587853999998</v>
       </c>
       <c r="G22" s="1">
         <v>16.358497</v>
       </c>
       <c r="H22" s="1">
-        <v>1273.450000</v>
+        <v>1273.45</v>
       </c>
       <c r="I22" s="1">
-        <v>-262.419000</v>
+        <v>-262.41899999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>58901.102543</v>
+        <v>58901.102543000001</v>
       </c>
       <c r="L22" s="1">
-        <v>16.361417</v>
+        <v>16.361416999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1307.810000</v>
+        <v>1307.81</v>
       </c>
       <c r="N22" s="1">
-        <v>-200.471000</v>
+        <v>-200.471</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>58911.538370</v>
+        <v>58911.538370000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>16.364316</v>
+        <v>16.364315999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1319.130000</v>
+        <v>1319.13</v>
       </c>
       <c r="S22" s="1">
-        <v>-182.816000</v>
+        <v>-182.816</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>58922.065956</v>
+        <v>58922.065955999999</v>
       </c>
       <c r="V22" s="1">
         <v>16.367241</v>
       </c>
       <c r="W22" s="1">
-        <v>1332.050000</v>
+        <v>1332.05</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.009000</v>
+        <v>-170.00899999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>58932.648103</v>
       </c>
       <c r="AA22" s="1">
-        <v>16.370180</v>
+        <v>16.370180000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1349.530000</v>
+        <v>1349.53</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.760000</v>
+        <v>-168.76</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>58943.074009</v>
+        <v>58943.074009000004</v>
       </c>
       <c r="AF22" s="1">
-        <v>16.373076</v>
+        <v>16.373076000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1362.500000</v>
+        <v>1362.5</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.790000</v>
+        <v>-178.79</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>58953.627387</v>
       </c>
       <c r="AK22" s="1">
-        <v>16.376008</v>
+        <v>16.376007999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1383.580000</v>
+        <v>1383.58</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.023000</v>
+        <v>-209.023</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>58964.490765</v>
+        <v>58964.490765000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>16.379025</v>
+        <v>16.379024999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1405.830000</v>
+        <v>1405.83</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.831000</v>
+        <v>-252.83099999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>58975.536173</v>
       </c>
       <c r="AU22" s="1">
-        <v>16.382093</v>
+        <v>16.382093000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1430.990000</v>
+        <v>1430.99</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.557000</v>
+        <v>-312.55700000000002</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>58986.974620</v>
+        <v>58986.974620000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>16.385271</v>
+        <v>16.385270999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1450.830000</v>
+        <v>1450.83</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.248000</v>
+        <v>-364.24799999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>58997.972735</v>
+        <v>58997.972735000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>16.388326</v>
+        <v>16.388325999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1538.010000</v>
+        <v>1538.01</v>
       </c>
       <c r="BG22" s="1">
-        <v>-609.692000</v>
+        <v>-609.69200000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>59009.373295</v>
+        <v>59009.373294999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>16.391493</v>
+        <v>16.391493000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1694.740000</v>
+        <v>1694.74</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1047.840000</v>
+        <v>-1047.8399999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>59020.304083</v>
+        <v>59020.304083000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>16.394529</v>
+        <v>16.394528999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1992.050000</v>
+        <v>1992.05</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1803.940000</v>
+        <v>-1803.94</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>59031.005765</v>
+        <v>59031.005765000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>16.397502</v>
+        <v>16.397501999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2384.320000</v>
+        <v>2384.3200000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2671.000000</v>
+        <v>-2671</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>59042.569989</v>
+        <v>59042.569989000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>16.400714</v>
+        <v>16.400714000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2867.880000</v>
+        <v>2867.88</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3614.690000</v>
+        <v>-3614.69</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>59055.193173</v>
       </c>
       <c r="CD22" s="1">
-        <v>16.404220</v>
+        <v>16.404219999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4271.550000</v>
+        <v>4271.55</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5872.130000</v>
+        <v>-5872.13</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>58880.774011</v>
+        <v>58880.774011000001</v>
       </c>
       <c r="B23" s="1">
-        <v>16.355771</v>
+        <v>16.355771000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1248.940000</v>
+        <v>1248.94</v>
       </c>
       <c r="D23" s="1">
-        <v>-303.908000</v>
+        <v>-303.90800000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>58890.930132</v>
+        <v>58890.930132000001</v>
       </c>
       <c r="G23" s="1">
-        <v>16.358592</v>
+        <v>16.358592000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>1273.480000</v>
+        <v>1273.48</v>
       </c>
       <c r="I23" s="1">
-        <v>-260.837000</v>
+        <v>-260.83699999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>58901.454741</v>
+        <v>58901.454741000001</v>
       </c>
       <c r="L23" s="1">
-        <v>16.361515</v>
+        <v>16.361515000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1307.640000</v>
+        <v>1307.6400000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-200.111000</v>
+        <v>-200.11099999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>58911.966417</v>
+        <v>58911.966417000003</v>
       </c>
       <c r="Q23" s="1">
         <v>16.364435</v>
       </c>
       <c r="R23" s="1">
-        <v>1319.150000</v>
+        <v>1319.15</v>
       </c>
       <c r="S23" s="1">
-        <v>-182.832000</v>
+        <v>-182.83199999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>58922.358101</v>
+        <v>58922.358100999998</v>
       </c>
       <c r="V23" s="1">
-        <v>16.367322</v>
+        <v>16.367322000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1332.120000</v>
+        <v>1332.12</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.136000</v>
+        <v>-170.136</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>58932.927882</v>
+        <v>58932.927882000004</v>
       </c>
       <c r="AA23" s="1">
         <v>16.370258</v>
       </c>
       <c r="AB23" s="1">
-        <v>1349.500000</v>
+        <v>1349.5</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.629000</v>
+        <v>-168.62899999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>58943.418233</v>
+        <v>58943.418232999997</v>
       </c>
       <c r="AF23" s="1">
         <v>16.373172</v>
       </c>
       <c r="AG23" s="1">
-        <v>1362.460000</v>
+        <v>1362.46</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.680000</v>
+        <v>-178.68</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>58953.975577</v>
+        <v>58953.975576999997</v>
       </c>
       <c r="AK23" s="1">
-        <v>16.376104</v>
+        <v>16.376104000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>1383.600000</v>
+        <v>1383.6</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.003000</v>
+        <v>-209.00299999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>58964.850896</v>
+        <v>58964.850896000004</v>
       </c>
       <c r="AP23" s="1">
-        <v>16.379125</v>
+        <v>16.379124999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1405.860000</v>
+        <v>1405.86</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.844000</v>
+        <v>-252.84399999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>58976.265788</v>
+        <v>58976.265787999997</v>
       </c>
       <c r="AU23" s="1">
         <v>16.382296</v>
       </c>
       <c r="AV23" s="1">
-        <v>1431.010000</v>
+        <v>1431.01</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.551000</v>
+        <v>-312.55099999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>58987.331535</v>
+        <v>58987.331534999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>16.385370</v>
+        <v>16.385370000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1450.830000</v>
+        <v>1450.83</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.249000</v>
+        <v>-364.24900000000002</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>58998.334288</v>
+        <v>58998.334287999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>16.388426</v>
+        <v>16.388425999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1537.950000</v>
+        <v>1537.95</v>
       </c>
       <c r="BG23" s="1">
-        <v>-609.655000</v>
+        <v>-609.65499999999997</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>59009.748257</v>
+        <v>59009.748256999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>16.391597</v>
+        <v>16.391597000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1694.580000</v>
+        <v>1694.58</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1047.830000</v>
+        <v>-1047.83</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>59021.038404</v>
+        <v>59021.038403999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>16.394733</v>
+        <v>16.394732999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1992.060000</v>
+        <v>1992.06</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1804.040000</v>
+        <v>-1804.04</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>59031.728435</v>
+        <v>59031.728434999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>16.397702</v>
+        <v>16.397701999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2384.530000</v>
+        <v>2384.5300000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2671.660000</v>
+        <v>-2671.66</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>59042.688036</v>
       </c>
       <c r="BY23" s="1">
-        <v>16.400747</v>
+        <v>16.400746999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2867.080000</v>
+        <v>2867.08</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3614.510000</v>
+        <v>-3614.51</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>59055.710004</v>
       </c>
       <c r="CD23" s="1">
-        <v>16.404364</v>
+        <v>16.404364000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4271.480000</v>
+        <v>4271.4799999999996</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5871.270000</v>
+        <v>-5871.27</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>58881.121706</v>
+        <v>58881.121705999998</v>
       </c>
       <c r="B24" s="1">
         <v>16.355867</v>
       </c>
       <c r="C24" s="1">
-        <v>1248.780000</v>
+        <v>1248.78</v>
       </c>
       <c r="D24" s="1">
-        <v>-303.629000</v>
+        <v>-303.62900000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>58891.347724</v>
+        <v>58891.347723999999</v>
       </c>
       <c r="G24" s="1">
         <v>16.358708</v>
       </c>
       <c r="H24" s="1">
-        <v>1273.600000</v>
+        <v>1273.5999999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-260.686000</v>
+        <v>-260.68599999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>58901.892176</v>
+        <v>58901.892176000001</v>
       </c>
       <c r="L24" s="1">
-        <v>16.361637</v>
+        <v>16.361637000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>1307.520000</v>
+        <v>1307.52</v>
       </c>
       <c r="N24" s="1">
-        <v>-200.362000</v>
+        <v>-200.36199999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>58912.245665</v>
+        <v>58912.245665000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>16.364513</v>
+        <v>16.364512999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1319.150000</v>
+        <v>1319.15</v>
       </c>
       <c r="S24" s="1">
-        <v>-182.875000</v>
+        <v>-182.875</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>58922.701827</v>
+        <v>58922.701826999997</v>
       </c>
       <c r="V24" s="1">
         <v>16.367417</v>
       </c>
       <c r="W24" s="1">
-        <v>1331.970000</v>
+        <v>1331.97</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.175000</v>
+        <v>-170.17500000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>58933.274549</v>
+        <v>58933.274549000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>16.370354</v>
+        <v>16.370353999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1349.380000</v>
+        <v>1349.38</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.778000</v>
+        <v>-168.77799999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>58943.758496</v>
+        <v>58943.758496000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>16.373266</v>
+        <v>16.373266000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1362.570000</v>
+        <v>1362.57</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.791000</v>
+        <v>-178.791</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>58954.669978</v>
+        <v>58954.669977999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>16.376297</v>
+        <v>16.376297000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1383.610000</v>
+        <v>1383.61</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.998000</v>
+        <v>-208.99799999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>58965.568570</v>
+        <v>58965.568570000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>16.379325</v>
+        <v>16.379325000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1405.820000</v>
+        <v>1405.82</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.814000</v>
+        <v>-252.81399999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>58976.654684</v>
+        <v>58976.654684000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>16.382404</v>
+        <v>16.382404000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1431.020000</v>
+        <v>1431.02</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.585000</v>
+        <v>-312.58499999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>58987.692125</v>
+        <v>58987.692125000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>16.385470</v>
+        <v>16.385470000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1450.800000</v>
+        <v>1450.8</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.234000</v>
+        <v>-364.23399999999998</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>58998.696398</v>
@@ -6300,604 +6716,605 @@
         <v>16.388527</v>
       </c>
       <c r="BF24" s="1">
-        <v>1538.030000</v>
+        <v>1538.03</v>
       </c>
       <c r="BG24" s="1">
-        <v>-609.674000</v>
+        <v>-609.67399999999998</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>59010.439185</v>
+        <v>59010.439185000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>16.391789</v>
+        <v>16.391788999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1694.660000</v>
+        <v>1694.66</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1047.900000</v>
+        <v>-1047.9000000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>59021.151746</v>
+        <v>59021.151746000003</v>
       </c>
       <c r="BO24" s="1">
-        <v>16.394764</v>
+        <v>16.394763999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1992.140000</v>
+        <v>1992.14</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1803.780000</v>
+        <v>-1803.78</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>59031.847970</v>
+        <v>59031.847970000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>16.397736</v>
+        <v>16.397735999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>2384.560000</v>
+        <v>2384.56</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2671.850000</v>
+        <v>-2671.85</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>59043.113142</v>
+        <v>59043.113142000002</v>
       </c>
       <c r="BY24" s="1">
         <v>16.400865</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2866.690000</v>
+        <v>2866.69</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3614.950000</v>
+        <v>-3614.95</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>59056.256595</v>
+        <v>59056.256594999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>16.404516</v>
+        <v>16.404516000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4273.680000</v>
+        <v>4273.68</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5863.180000</v>
+        <v>-5863.18</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>58881.548761</v>
+        <v>58881.548760999998</v>
       </c>
       <c r="B25" s="1">
-        <v>16.355986</v>
+        <v>16.355986000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1248.710000</v>
+        <v>1248.71</v>
       </c>
       <c r="D25" s="1">
-        <v>-303.863000</v>
+        <v>-303.863</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>58891.645356</v>
+        <v>58891.645356000001</v>
       </c>
       <c r="G25" s="1">
-        <v>16.358790</v>
+        <v>16.358789999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1273.210000</v>
+        <v>1273.21</v>
       </c>
       <c r="I25" s="1">
-        <v>-261.561000</v>
+        <v>-261.56099999999998</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>58902.155550</v>
+        <v>58902.155550000003</v>
       </c>
       <c r="L25" s="1">
-        <v>16.361710</v>
+        <v>16.361709999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1307.750000</v>
+        <v>1307.75</v>
       </c>
       <c r="N25" s="1">
-        <v>-200.305000</v>
+        <v>-200.30500000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>58912.595841</v>
+        <v>58912.595841000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>16.364610</v>
+        <v>16.364609999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1319.130000</v>
+        <v>1319.13</v>
       </c>
       <c r="S25" s="1">
-        <v>-182.873000</v>
+        <v>-182.87299999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>58923.047278</v>
+        <v>58923.047277999998</v>
       </c>
       <c r="V25" s="1">
-        <v>16.367513</v>
+        <v>16.367512999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1331.940000</v>
+        <v>1331.94</v>
       </c>
       <c r="X25" s="1">
-        <v>-169.937000</v>
+        <v>-169.93700000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>58933.623733</v>
       </c>
       <c r="AA25" s="1">
-        <v>16.370451</v>
+        <v>16.370450999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1349.330000</v>
+        <v>1349.33</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.695000</v>
+        <v>-168.69499999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>58944.446438</v>
+        <v>58944.446437999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>16.373457</v>
+        <v>16.373456999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>1362.530000</v>
+        <v>1362.53</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.807000</v>
+        <v>-178.80699999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>58955.020680</v>
+        <v>58955.020680000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>16.376395</v>
+        <v>16.376394999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1383.560000</v>
+        <v>1383.56</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.032000</v>
+        <v>-209.03200000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>58965.927709</v>
+        <v>58965.927709000003</v>
       </c>
       <c r="AP25" s="1">
         <v>16.379424</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1405.810000</v>
+        <v>1405.81</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.825000</v>
+        <v>-252.82499999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>58977.018750</v>
+        <v>58977.018750000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>16.382505</v>
+        <v>16.382504999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>1431.010000</v>
+        <v>1431.01</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.521000</v>
+        <v>-312.52100000000002</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>58988.363244</v>
       </c>
       <c r="AZ25" s="1">
-        <v>16.385656</v>
+        <v>16.385656000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1450.820000</v>
+        <v>1450.82</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.253000</v>
+        <v>-364.25299999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>58999.373740</v>
+        <v>58999.373740000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>16.388715</v>
+        <v>16.388715000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1538.020000</v>
+        <v>1538.02</v>
       </c>
       <c r="BG25" s="1">
-        <v>-609.673000</v>
+        <v>-609.673</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>59010.872501</v>
+        <v>59010.872500999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>16.391909</v>
+        <v>16.391908999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1694.840000</v>
+        <v>1694.84</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1047.740000</v>
+        <v>-1047.74</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>59021.546562</v>
+        <v>59021.546562000003</v>
       </c>
       <c r="BO25" s="1">
-        <v>16.394874</v>
+        <v>16.394874000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1992.060000</v>
+        <v>1992.06</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1803.880000</v>
+        <v>-1803.88</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>59032.287435</v>
+        <v>59032.287434999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>16.397858</v>
+        <v>16.397857999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2384.820000</v>
+        <v>2384.8200000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2672.360000</v>
+        <v>-2672.36</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>59043.529748</v>
+        <v>59043.529748000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>16.400980</v>
+        <v>16.400980000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2867.390000</v>
+        <v>2867.39</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3615.350000</v>
+        <v>-3615.35</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>59056.789794</v>
+        <v>59056.789793999997</v>
       </c>
       <c r="CD25" s="1">
         <v>16.404664</v>
       </c>
       <c r="CE25" s="1">
-        <v>4278.710000</v>
+        <v>4278.71</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5876.850000</v>
+        <v>-5876.85</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>58881.823579</v>
+        <v>58881.823579000004</v>
       </c>
       <c r="B26" s="1">
-        <v>16.356062</v>
+        <v>16.356062000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="D26" s="1">
-        <v>-303.663000</v>
+        <v>-303.66300000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>58891.988555</v>
+        <v>58891.988555000004</v>
       </c>
       <c r="G26" s="1">
-        <v>16.358886</v>
+        <v>16.358885999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>1273.260000</v>
+        <v>1273.26</v>
       </c>
       <c r="I26" s="1">
-        <v>-262.219000</v>
+        <v>-262.21899999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>58902.497295</v>
+        <v>58902.497295000001</v>
       </c>
       <c r="L26" s="1">
         <v>16.361805</v>
       </c>
       <c r="M26" s="1">
-        <v>1307.420000</v>
+        <v>1307.42</v>
       </c>
       <c r="N26" s="1">
-        <v>-200.337000</v>
+        <v>-200.33699999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>58912.943570</v>
+        <v>58912.943570000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>16.364707</v>
+        <v>16.364706999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1319.050000</v>
+        <v>1319.05</v>
       </c>
       <c r="S26" s="1">
-        <v>-182.823000</v>
+        <v>-182.82300000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>58923.732018</v>
+        <v>58923.732018000002</v>
       </c>
       <c r="V26" s="1">
-        <v>16.367703</v>
+        <v>16.367702999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1331.930000</v>
+        <v>1331.93</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.065000</v>
+        <v>-170.065</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>58934.319621</v>
+        <v>58934.319621000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>16.370644</v>
+        <v>16.370643999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1349.250000</v>
+        <v>1349.25</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.669000</v>
+        <v>-168.66900000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>58944.788183</v>
+        <v>58944.788182999997</v>
       </c>
       <c r="AF26" s="1">
         <v>16.373552</v>
       </c>
       <c r="AG26" s="1">
-        <v>1362.510000</v>
+        <v>1362.51</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.805000</v>
+        <v>-178.80500000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>58955.367352</v>
+        <v>58955.367352000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>16.376491</v>
+        <v>16.376491000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1383.580000</v>
+        <v>1383.58</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.005000</v>
+        <v>-209.005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>58966.293258</v>
+        <v>58966.293257999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>16.379526</v>
+        <v>16.379525999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1405.840000</v>
+        <v>1405.84</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.837000</v>
+        <v>-252.83699999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>58977.697242</v>
+        <v>58977.697242000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>16.382694</v>
+        <v>16.382694000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1431.040000</v>
+        <v>1431.04</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.569000</v>
+        <v>-312.56900000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>58988.800718</v>
+        <v>58988.800717999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>16.385778</v>
+        <v>16.385777999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1450.810000</v>
+        <v>1450.81</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.263000</v>
+        <v>-364.26299999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>58999.807438</v>
+        <v>58999.807438000003</v>
       </c>
       <c r="BE26" s="1">
         <v>16.388835</v>
       </c>
       <c r="BF26" s="1">
-        <v>1537.970000</v>
+        <v>1537.97</v>
       </c>
       <c r="BG26" s="1">
-        <v>-609.660000</v>
+        <v>-609.66</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>59011.247663</v>
+        <v>59011.247663000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>16.392013</v>
+        <v>16.392012999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1694.590000</v>
+        <v>1694.59</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1047.810000</v>
+        <v>-1047.81</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>59021.969152</v>
+        <v>59021.969151999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>16.394991</v>
+        <v>16.394991000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1992.000000</v>
+        <v>1992</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1803.910000</v>
+        <v>-1803.91</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>59032.711541</v>
+        <v>59032.711540999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>16.397975</v>
+        <v>16.397974999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>2384.230000</v>
+        <v>2384.23</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2672.570000</v>
+        <v>-2672.57</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>59043.976148</v>
+        <v>59043.976148000002</v>
       </c>
       <c r="BY26" s="1">
         <v>16.401104</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2867.200000</v>
+        <v>2867.2</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3614.680000</v>
+        <v>-3614.68</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>59057.305634</v>
+        <v>59057.305633999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>16.404807</v>
+        <v>16.404807000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>4293.270000</v>
+        <v>4293.2700000000004</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5870.320000</v>
+        <v>-5870.32</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>